--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息表" sheetId="1" r:id="rId1"/>
-    <sheet name="工作计划" sheetId="3" r:id="rId2"/>
+    <sheet name="房租租赁" sheetId="5" r:id="rId2"/>
+    <sheet name="物业管理" sheetId="6" r:id="rId3"/>
+    <sheet name="知识分享" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="326">
   <si>
     <t>界面字段名</t>
   </si>
@@ -42,15 +44,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>识别号</t>
@@ -60,95 +62,61 @@
   </si>
   <si>
     <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>男，女</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>xingming</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>xingbie</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>gongzuodi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>lingdao</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>beizhu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">员工信息表  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZZZ_userinfo</t>
-    </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uaid</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>kuozhanqx</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>addtime</t>
   </si>
   <si>
     <t>添加时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>扩展权限</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>备用</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>datetime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>nvarchar(50)</t>
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>在职,离职</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>nvarchar(500)</t>
@@ -173,87 +141,83 @@
   </si>
   <si>
     <t>员工状态</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>youxiang</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>zhiwei</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>职位</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>工作地</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>suoshuquyu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>shoujihao</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>手机号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>固定电话</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>邮箱</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>公司领导</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>gudingdianhua</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>主键</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>文件名称</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>所属类型</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>附件</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>简述</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Ffujian</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Fjianshu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -277,71 +241,71 @@
       </rPr>
       <t>0)</t>
     </r>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>nvarchar(max)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>知识分享  表名：ZZZ_WENDANG</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>索引地址</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>nvarchar(50)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>nvarchar(500)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>FID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Fmingcheng</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Fleixing</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Fss</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>修改日期</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>datatime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Friqi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>zhuangtai</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -383,22 +347,1144 @@
       </rPr>
       <t>否</t>
     </r>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>所属部门SortID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>所属部门</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑面积</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fjzmj</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>已承租、未承租</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份信息</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cshenfenzheng</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Faddtime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nvarchar(5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nvarchar(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人uaid</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同编号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>月付,季度付</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,半年付,季度付</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款单号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hyjrq</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款凭证号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款金额</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_HID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mpz</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mje</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>numeric(18, 2)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mbeizhu</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mzt</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>草稿、生效</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mchuangjianren</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maddtime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人uaid</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款单号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款凭证号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款金额</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_MID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_MID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mpz</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_Mpz</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据付款方式和合同签订日期自动生成，留空代表取消了预警</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业费收款单表  表名：ZZZ_moneyWYFSKD</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款单号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费项目</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myouxiao2</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他退款单表  表名：ZZZ_moneyQTTKD</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>原收款单号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>原凭证号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wwenti</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>numeric(18, 2)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>numeric(18, 2)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是,否</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>FID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fzhuangtai</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fdiqu</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fzuoluo</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fjcsj</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fhxjg</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fshineisheshi</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fchewei</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fsssbpz</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>getdate()</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>环翠区,经区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,高区,南海新区,荣成,文登,乳山</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>已入住、空置</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋编号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>入住状态</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐落</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>建成时间</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>户型结构</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>室内设施</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>车位</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>设施设备配置</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>创建人u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>aid</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Czhuangtai</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clianxifangshi</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cgongzuodanwei</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cczqx</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Caddtime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>getdate()</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>承租人编号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>承租状态</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作单位</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>承租资格期限</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人uaid</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>HID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hzhuangtai</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hdaoqiriqi</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hfkfs</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hqiandingriqi</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hbeizhu</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haddtime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>草稿、生效、已退租</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同编号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同状态</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>承租人编号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋编号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同到期日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>房租付款方式</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>房租付款预警日</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>签订日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同备注</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>TZID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>TZriqi</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>TZbeizhu</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>TZaddtime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nvarchar(500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>退租单号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>退租日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>退租关联合同</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>退租备注</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人uaid</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>租金收款单表  表名：ZZZ_moneyZJSKD</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mpz</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mje</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mbeizhu</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mzt</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maddtime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>numeric(18, 2)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>草稿、生效</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款凭证号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款金额</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人uaid</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>押金收款单表  表名：ZZZ_moneyYJSKD</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>押金退款单表  表名：ZZZ_moneyYJTHD</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>原押金凭证号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>原押金收款单号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款单号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款凭证号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款金额</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>可通过配置自定义</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mxiangmu</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myouxiao1</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效区间开始日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效区间结束日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修申请单表  表名：ZZZ_WXQQ</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>WID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wsqrq</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wbeizhu</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wzt</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waddtime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请单号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题描述</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人uaid</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>已申请、处理中、结单</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修记录单表  表名：ZZZ_WXJL</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>JID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jjieguo</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jgldh</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jwxrq</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jsfbxn</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jsffffy</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jfyje</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jgcms</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>未解决、结单</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是,否</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人uaid</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修单号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修结果</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联申请单号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否保险期内</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否发生费用</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用金额</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理过程描述</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">员工信息表  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_userinfo</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fchuangjianren</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uaid</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>xingming</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cchuangjianren</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>承租人表主表  表名：ZZZ_chengzuren</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hchuangjianren</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>H_CID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>CID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cxingming</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">房屋档案表主表  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：ZZZ_fangzi</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>H_FID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>入住合同表主表  表名：ZZZ_RZHT</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>TZchuangjianren</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>TZ_HID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>退租记录表  表名：ZZZ_tuizujilu</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mchuangjianren</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_HID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wchuangjianren</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jchuangjianren</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jaddtime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,13 +1674,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -620,8 +1699,25 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -757,12 +1853,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,7 +2214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1151,69 +2241,66 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="45" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="70">
@@ -1588,10 +2675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1606,21 +2693,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="28"/>
+      <c r="A1" s="21"/>
       <c r="B1" s="17"/>
       <c r="C1" s="18"/>
       <c r="D1" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1650,10 +2737,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>21</v>
+        <v>306</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>7</v>
@@ -1664,174 +2751,174 @@
       <c r="F5" s="6"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:7" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="21"/>
-    </row>
-    <row r="7" spans="1:7" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" spans="1:7" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="21" t="s">
+      <c r="C8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="14" t="s">
+    <row r="9" spans="1:7" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>50</v>
+      <c r="B9" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="21" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="27" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="24" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="25"/>
-    </row>
-    <row r="12" spans="1:7" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" spans="1:7" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="21"/>
-    </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" s="27" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="29" t="s">
-        <v>77</v>
+      <c r="G14" s="22" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>13</v>
@@ -1842,13 +2929,13 @@
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>49</v>
-      </c>
       <c r="C16" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>13</v>
@@ -1859,13 +2946,13 @@
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>13</v>
@@ -1876,13 +2963,13 @@
     </row>
     <row r="18" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>13</v>
@@ -1890,14 +2977,455 @@
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
       <c r="G18" s="2" t="s">
-        <v>76</v>
-      </c>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="26"/>
+    </row>
+    <row r="35" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="22"/>
+    </row>
+    <row r="38" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="45" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+    </row>
+    <row r="46" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G53" s="26"/>
+    </row>
+    <row r="54" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G55" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A45:G45"/>
   </mergeCells>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1905,10 +3433,1761 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G99"/>
+  <sheetViews>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="5.75" customWidth="1"/>
+    <col min="7" max="7" width="56" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G14" s="5"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G25" s="5"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A44" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+    </row>
+    <row r="45" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A58" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+    </row>
+    <row r="59" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="6"/>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+    </row>
+    <row r="64" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="6"/>
+    </row>
+    <row r="65" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G67" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A72" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+    </row>
+    <row r="73" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="6"/>
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E77" s="4"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="4"/>
+    </row>
+    <row r="78" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+    </row>
+    <row r="79" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="6"/>
+    </row>
+    <row r="80" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="4"/>
+    </row>
+    <row r="81" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G82" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B83" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A88" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+    </row>
+    <row r="89" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="6"/>
+      <c r="G90" s="4"/>
+    </row>
+    <row r="91" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E91" s="4"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="4"/>
+    </row>
+    <row r="92" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E92" s="4"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="4"/>
+    </row>
+    <row r="93" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+    </row>
+    <row r="94" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B94" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E94" s="6"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="6"/>
+    </row>
+    <row r="95" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B95" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="4"/>
+    </row>
+    <row r="96" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G96" s="5"/>
+    </row>
+    <row r="97" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B97" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G97" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B98" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B99" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A88:G88"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A72:G72"/>
+  </mergeCells>
+  <phoneticPr fontId="26" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="7" max="7" width="22.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A14:G14"/>
+  </mergeCells>
+  <phoneticPr fontId="26" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1922,15 +5201,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="A1" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1957,13 +5236,13 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -1976,13 +5255,13 @@
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -1993,16 +5272,16 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="9"/>
@@ -2010,16 +5289,16 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="8"/>
@@ -2027,49 +5306,49 @@
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="D7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="B8" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>64</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="26" t="s">
-        <v>72</v>
+      <c r="A9" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息表" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="330">
   <si>
     <t>界面字段名</t>
   </si>
@@ -358,10 +358,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>建筑面积</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>创建时间</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -419,18 +415,6 @@
   </si>
   <si>
     <t>nvarchar(50)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>已承租、未承租</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份信息</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cshenfenzheng</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
@@ -506,21 +490,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>月付,季度付</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,半年付,季度付</t>
-    </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>datetime</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -785,19 +754,11 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>FID</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>Fzhuangtai</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Fdiqu</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fzuoluo</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
@@ -852,31 +813,7 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>地区</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>坐落</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>建成时间</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>户型结构</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>室内设施</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>车位</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>设施设备配置</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
@@ -915,10 +852,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>Cczqx</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>Caddtime</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -947,26 +880,10 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>联系方式</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作单位</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>承租资格期限</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>创建人uaid</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>HID</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>Hzhuangtai</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -995,10 +912,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>草稿、生效、已退租</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>合同编号</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -1007,51 +920,11 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>承租人编号</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>房屋编号</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同到期日期</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>房租付款方式</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>房租付款预警日</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>签订日期</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同备注</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>创建人</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>创建时间</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>TZID</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>TZriqi</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>TZbeizhu</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
@@ -1106,14 +979,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>租金收款单表  表名：ZZZ_moneyZJSKD</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>MID</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>Mpz</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -1126,10 +991,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>Mzt</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>Maddtime</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -1142,10 +1003,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>草稿、生效</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>状态</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -1271,10 +1128,6 @@
   </si>
   <si>
     <t>已申请、处理中、结单</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修记录单表  表名：ZZZ_WXJL</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
@@ -1416,7 +1269,59 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>Cxingming</t>
+    <t>TZchuangjianren</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>TZ_HID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wchuangjianren</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jaddtime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jchuangjianren</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修记录单表  表名：ZZZ_WXJL</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>建成时间</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑面积</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>户型结构</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>室内设施</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>车位</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>设施设备配置</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
@@ -1436,47 +1341,158 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
+    <t>身份信息</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作单位</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cczqx</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>承租资格期限</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋编号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同到期日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>房租付款方式</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>房租付款预警日</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>月付,季度付</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,半年付,季度付</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>签订日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同备注</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>房租金额</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hje</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>TZID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>TZriqi</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>TZbeizhu</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cxingming</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>草稿、生效、已退租</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>FID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
     <t>H_FID</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
+    <t>已承租、未承租</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cshenfenzheng</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_HID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fzuoluo</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>退租记录表  表名：ZZZ_tuizujilu</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>租金收款单表  表名：ZZZ_moneyZJSKD</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mchuangjianren</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
     <t>入住合同表主表  表名：ZZZ_RZHT</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>TZchuangjianren</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>TZ_HID</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>退租记录表  表名：ZZZ_tuizujilu</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mchuangjianren</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(500)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>M_HID</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wchuangjianren</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jchuangjianren</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jaddtime</t>
+    <t>HID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>草稿、生效</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -2280,9 +2296,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -2301,6 +2314,9 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="70">
@@ -2678,7 +2694,7 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:G26"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2699,15 +2715,15 @@
       <c r="D1" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="A3" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2737,7 +2753,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>25</v>
@@ -2751,12 +2767,12 @@
       <c r="F5" s="6"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>307</v>
+      <c r="B6" s="27" t="s">
+        <v>273</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>32</v>
@@ -2768,11 +2784,11 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -2785,11 +2801,11 @@
       <c r="F7" s="9"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -2804,18 +2820,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+    <row r="9" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="9"/>
@@ -2823,11 +2839,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+    <row r="10" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>71</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2842,11 +2858,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="27" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
+    <row r="11" spans="1:7" s="26" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -2855,13 +2871,13 @@
       <c r="D11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="30"/>
-    </row>
-    <row r="12" spans="1:7" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+      <c r="G11" s="29"/>
+    </row>
+    <row r="12" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -2874,11 +2890,11 @@
       <c r="F12" s="9"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" s="27" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
+    <row r="13" spans="1:7" s="26" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -2981,15 +2997,15 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
+      <c r="A26" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -3016,10 +3032,10 @@
     </row>
     <row r="28" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>169</v>
+        <v>317</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>25</v>
@@ -3034,11 +3050,11 @@
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>170</v>
+      <c r="A29" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>164</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>32</v>
@@ -3049,140 +3065,140 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>171</v>
+      <c r="A30" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>165</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="9"/>
       <c r="G30" s="6" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>172</v>
+      <c r="A31" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="9"/>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>173</v>
+      <c r="A32" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>166</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="9"/>
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>86</v>
+      <c r="A33" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>85</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="9"/>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>174</v>
+      <c r="A34" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>167</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D34" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="25"/>
+    </row>
+    <row r="35" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="G34" s="26"/>
-    </row>
-    <row r="35" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="9"/>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>176</v>
+      <c r="A36" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>169</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>177</v>
+      <c r="A37" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>170</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
@@ -3190,52 +3206,52 @@
     </row>
     <row r="38" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="C38" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="10"/>
       <c r="G38" s="22" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="9" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G39" s="4"/>
     </row>
     <row r="45" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
+      <c r="A45" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
     </row>
     <row r="46" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -3262,13 +3278,13 @@
     </row>
     <row r="47" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>7</v>
@@ -3280,14 +3296,14 @@
       <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>193</v>
+      <c r="A48" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>10</v>
@@ -3295,127 +3311,127 @@
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6" t="s">
-        <v>91</v>
+        <v>319</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>313</v>
+      <c r="A49" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>315</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="9"/>
       <c r="G49" s="6"/>
     </row>
     <row r="50" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>93</v>
+      <c r="A50" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>320</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="9"/>
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>194</v>
+      <c r="A51" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>181</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="9"/>
       <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>195</v>
+      <c r="A52" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>182</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="9"/>
       <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>196</v>
+      <c r="A53" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>297</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G53" s="26"/>
+        <v>103</v>
+      </c>
+      <c r="G53" s="25"/>
     </row>
     <row r="54" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>308</v>
+      <c r="A54" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>274</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="9"/>
       <c r="G54" s="6" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>197</v>
+      <c r="A55" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>183</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="G55" s="4"/>
     </row>
@@ -3433,10 +3449,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3448,17 +3464,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3483,13 +3499,13 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>208</v>
+        <v>328</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -3501,14 +3517,14 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>209</v>
+      <c r="A4" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>191</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
@@ -3516,1280 +3532,1298 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>216</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>311</v>
+      <c r="A5" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>277</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="9"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>315</v>
+      <c r="A6" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="9"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>210</v>
+      <c r="A7" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>192</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="9"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>211</v>
+      <c r="A8" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>193</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="9"/>
       <c r="G8" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G15" s="5"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+    </row>
+    <row r="19" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G14" s="5"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="4"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>317</v>
+      <c r="A23" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>314</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>90</v>
+        <v>204</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>231</v>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>279</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D24" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G26" s="5"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+    </row>
+    <row r="32" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A45" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+    </row>
+    <row r="46" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G25" s="5"/>
-    </row>
-    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-    </row>
-    <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="B50" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A59" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+    </row>
+    <row r="60" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="4" t="s">
+    <row r="61" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G37" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A44" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-    </row>
-    <row r="45" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="6"/>
-    </row>
-    <row r="49" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G51" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A58" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-    </row>
-    <row r="59" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="6"/>
-      <c r="G60" s="4"/>
-    </row>
-    <row r="61" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E61" s="4"/>
       <c r="F61" s="6"/>
       <c r="G61" s="4"/>
     </row>
     <row r="62" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="6"/>
       <c r="G62" s="4"/>
     </row>
     <row r="63" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B63" s="24" t="s">
+      <c r="A63" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+    </row>
+    <row r="65" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="6"/>
+    </row>
+    <row r="66" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C67" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-    </row>
-    <row r="64" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="B64" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C64" s="6" t="s">
+      <c r="D67" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G68" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G69" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D64" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="6"/>
-    </row>
-    <row r="65" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="B65" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="4"/>
-    </row>
-    <row r="66" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G66" s="5"/>
-    </row>
-    <row r="67" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G67" t="s">
+    </row>
+    <row r="70" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" s="24" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="B68" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B69" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A72" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-    </row>
-    <row r="73" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+      <c r="C70" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A73" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+    </row>
+    <row r="74" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C74" s="6" t="s">
+    <row r="75" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E74" s="4" t="s">
+      <c r="B75" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F74" s="6"/>
-      <c r="G74" s="4"/>
-    </row>
-    <row r="75" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E75" s="4"/>
       <c r="F75" s="6"/>
-      <c r="G75" s="6" t="s">
-        <v>265</v>
-      </c>
+      <c r="G75" s="4"/>
     </row>
     <row r="76" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
-        <v>268</v>
+        <v>144</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="6"/>
-      <c r="G76" s="4"/>
+      <c r="G76" s="6" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="77" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>150</v>
+        <v>234</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="6"/>
       <c r="G77" s="4"/>
     </row>
     <row r="78" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B78" s="24" t="s">
+      <c r="A78" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E78" s="4"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+    </row>
+    <row r="80" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="6"/>
+    </row>
+    <row r="81" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C82" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-    </row>
-    <row r="79" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="B79" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C79" s="6" t="s">
+      <c r="D82" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B83" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G83" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B84" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G84" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D79" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E79" s="6"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="6"/>
-    </row>
-    <row r="80" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="B80" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D80" s="6" t="s">
+    </row>
+    <row r="85" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B85" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A89" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="B89" s="30"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="30"/>
+    </row>
+    <row r="90" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="4"/>
-    </row>
-    <row r="81" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="B81" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G81" s="5"/>
-    </row>
-    <row r="82" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B82" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G82" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="B83" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B84" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A88" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="B88" s="23"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-    </row>
-    <row r="89" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E90" s="4" t="s">
+      <c r="B91" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E91" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="6"/>
-      <c r="G90" s="4"/>
-    </row>
-    <row r="91" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B91" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E91" s="4"/>
       <c r="F91" s="6"/>
       <c r="G91" s="4"/>
     </row>
     <row r="92" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="6"/>
       <c r="G92" s="4"/>
     </row>
     <row r="93" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B93" s="24" t="s">
+      <c r="A93" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E93" s="4"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="4"/>
+    </row>
+    <row r="94" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+    </row>
+    <row r="95" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B95" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E95" s="6"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="6"/>
+    </row>
+    <row r="96" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B96" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="4"/>
+    </row>
+    <row r="97" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B97" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C97" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C93" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-    </row>
-    <row r="94" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="B94" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C94" s="6" t="s">
+      <c r="D97" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G97" s="5"/>
+    </row>
+    <row r="98" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B98" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G98" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B99" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G99" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D94" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E94" s="6"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="6"/>
-    </row>
-    <row r="95" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="B95" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="4"/>
-    </row>
-    <row r="96" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="B96" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G96" s="5"/>
-    </row>
-    <row r="97" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B97" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G97" t="s">
+    </row>
+    <row r="100" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B100" s="24" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="B98" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B99" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="C99" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>105</v>
+      <c r="C100" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A88:G88"/>
+    <mergeCell ref="A89:G89"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="A73:G73"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4797,8 +4831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4810,15 +4844,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="A1" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -4845,16 +4879,16 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>8</v>
@@ -4864,16 +4898,16 @@
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
@@ -4881,98 +4915,98 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="6"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>273</v>
+      <c r="A6" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>240</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>274</v>
+      <c r="A7" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>241</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>323</v>
-      </c>
       <c r="C8" s="20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>275</v>
+      <c r="A9" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>242</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
+      <c r="A14" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -4999,16 +5033,16 @@
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>8</v>
@@ -5018,158 +5052,158 @@
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="6"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
-        <v>299</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>287</v>
+      <c r="A19" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>253</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>288</v>
+      <c r="A20" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>254</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>289</v>
+      <c r="A21" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>255</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>290</v>
+      <c r="A22" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>256</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>291</v>
+      <c r="A23" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>257</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>324</v>
+      <c r="A24" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>284</v>
       </c>
       <c r="C24" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="G24" s="6" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>325</v>
+      <c r="A25" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>283</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -5201,15 +5235,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息表" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="333">
   <si>
     <t>界面字段名</t>
   </si>
@@ -638,10 +638,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>M_MID</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>Mpz</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -674,22 +670,10 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>收费项目</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Myouxiao2</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>datetime</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>其他退款单表  表名：ZZZ_moneyQTTKD</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>原收款单号</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -699,14 +683,6 @@
   </si>
   <si>
     <t>否</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wwenti</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
@@ -1031,22 +1007,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>押金收款单表  表名：ZZZ_moneyYJSKD</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>押金退款单表  表名：ZZZ_moneyYJTHD</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>原押金凭证号</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>原押金收款单号</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>退款单号</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -1063,42 +1023,10 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>Mxiangmu</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Myouxiao1</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效区间开始日期</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效区间结束日期</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修申请单表  表名：ZZZ_WXQQ</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>WID</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>Wsqrq</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wbeizhu</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wzt</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>Waddtime</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -1127,10 +1055,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>已申请、处理中、结单</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>JID</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -1139,10 +1063,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>Jgldh</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>Jwxrq</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -1192,22 +1112,6 @@
   </si>
   <si>
     <t>维修日期</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否保险期内</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否发生费用</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用金额</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理过程描述</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
@@ -1493,6 +1397,114 @@
   </si>
   <si>
     <t>草稿、生效</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款凭证号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款金额</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>押金收款单表  表名：ZZZ_moneyYJSKD</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>原押金收款单号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>原押金凭证号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>押金退款单表  表名：ZZZ_moneyYJTHD</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_MID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_Mpz</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他退款单表  表名：ZZZ_moneyQTTKD</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费项目</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myouxiao1</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效区间结束日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myouxiao2</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效区间开始日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mxiangmu</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修申请单表  表名：ZZZ_WXQQ</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jgldh</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wsqrq</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wwenti</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wbeizhu</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否保险期内</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否发生费用</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用金额</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理过程描述</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>已申请、处理中、结单</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wzt</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -2716,7 +2728,7 @@
     </row>
     <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -2753,7 +2765,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>25</v>
@@ -2772,7 +2784,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>32</v>
@@ -2998,7 +3010,7 @@
     </row>
     <row r="26" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="30" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -3032,10 +3044,10 @@
     </row>
     <row r="28" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>25</v>
@@ -3051,10 +3063,10 @@
     </row>
     <row r="29" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>32</v>
@@ -3065,15 +3077,15 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>33</v>
@@ -3084,15 +3096,15 @@
       <c r="E30" s="6"/>
       <c r="F30" s="9"/>
       <c r="G30" s="6" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>34</v>
@@ -3106,10 +3118,10 @@
     </row>
     <row r="32" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>84</v>
@@ -3123,7 +3135,7 @@
     </row>
     <row r="33" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="B33" s="23" t="s">
         <v>85</v>
@@ -3140,10 +3152,10 @@
     </row>
     <row r="34" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>86</v>
@@ -3155,10 +3167,10 @@
     </row>
     <row r="35" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>89</v>
@@ -3172,10 +3184,10 @@
     </row>
     <row r="36" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>25</v>
@@ -3189,10 +3201,10 @@
     </row>
     <row r="37" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>25</v>
@@ -3206,10 +3218,10 @@
     </row>
     <row r="38" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>86</v>
@@ -3220,12 +3232,12 @@
       <c r="E38" s="11"/>
       <c r="F38" s="10"/>
       <c r="G38" s="22" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>90</v>
@@ -3238,13 +3250,13 @@
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="9" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G39" s="4"/>
     </row>
     <row r="45" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="30" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
@@ -3278,13 +3290,13 @@
     </row>
     <row r="47" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>7</v>
@@ -3297,10 +3309,10 @@
     </row>
     <row r="48" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="24" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>92</v>
@@ -3311,15 +3323,15 @@
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>86</v>
@@ -3333,10 +3345,10 @@
     </row>
     <row r="50" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="24" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>91</v>
@@ -3350,10 +3362,10 @@
     </row>
     <row r="51" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="24" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>84</v>
@@ -3367,10 +3379,10 @@
     </row>
     <row r="52" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="24" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>83</v>
@@ -3384,13 +3396,13 @@
     </row>
     <row r="53" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="24" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>103</v>
@@ -3399,10 +3411,10 @@
     </row>
     <row r="54" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="24" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>89</v>
@@ -3413,15 +3425,15 @@
       <c r="E54" s="6"/>
       <c r="F54" s="9"/>
       <c r="G54" s="6" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="24" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>99</v>
@@ -3431,7 +3443,7 @@
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G55" s="4"/>
     </row>
@@ -3451,8 +3463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3465,7 +3477,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="30" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -3499,10 +3511,10 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>93</v>
@@ -3518,10 +3530,10 @@
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>92</v>
@@ -3532,15 +3544,15 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>86</v>
@@ -3554,10 +3566,10 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>91</v>
@@ -3571,13 +3583,13 @@
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>80</v>
@@ -3588,10 +3600,10 @@
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>83</v>
@@ -3602,21 +3614,21 @@
       <c r="E8" s="6"/>
       <c r="F8" s="9"/>
       <c r="G8" s="6" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="9"/>
@@ -3624,7 +3636,7 @@
     </row>
     <row r="10" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>107</v>
@@ -3633,18 +3645,18 @@
         <v>98</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="25" t="s">
         <v>140</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>81</v>
@@ -3658,10 +3670,10 @@
     </row>
     <row r="12" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>97</v>
@@ -3675,10 +3687,10 @@
     </row>
     <row r="13" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>96</v>
@@ -3694,13 +3706,13 @@
     </row>
     <row r="14" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>80</v>
@@ -3714,7 +3726,7 @@
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="30" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -3748,10 +3760,10 @@
     </row>
     <row r="20" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>84</v>
@@ -3767,13 +3779,13 @@
     </row>
     <row r="21" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>10</v>
@@ -3784,10 +3796,10 @@
     </row>
     <row r="22" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>86</v>
@@ -3801,13 +3813,13 @@
     </row>
     <row r="23" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>79</v>
@@ -3818,10 +3830,10 @@
     </row>
     <row r="24" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="24" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>89</v>
@@ -3832,15 +3844,15 @@
       <c r="E24" s="6"/>
       <c r="F24" s="9"/>
       <c r="G24" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="24" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>82</v>
@@ -3857,7 +3869,7 @@
     </row>
     <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="30" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
@@ -3891,13 +3903,13 @@
     </row>
     <row r="33" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>7</v>
@@ -3910,10 +3922,10 @@
     </row>
     <row r="34" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>92</v>
@@ -3927,10 +3939,10 @@
     </row>
     <row r="35" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>124</v>
@@ -3944,13 +3956,13 @@
     </row>
     <row r="36" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>125</v>
@@ -3961,13 +3973,13 @@
     </row>
     <row r="37" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>79</v>
@@ -3976,7 +3988,7 @@
     </row>
     <row r="38" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B38" s="24" t="s">
         <v>122</v>
@@ -3988,15 +4000,15 @@
         <v>100</v>
       </c>
       <c r="G38" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="C39" s="20" t="s">
         <v>126</v>
@@ -4005,7 +4017,7 @@
         <v>80</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4013,7 +4025,7 @@
         <v>75</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C40" s="20" t="s">
         <v>81</v>
@@ -4024,7 +4036,7 @@
     </row>
     <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="30" t="s">
-        <v>225</v>
+        <v>309</v>
       </c>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
@@ -4097,7 +4109,7 @@
         <v>109</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>124</v>
@@ -4191,7 +4203,7 @@
     </row>
     <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="30" t="s">
-        <v>226</v>
+        <v>312</v>
       </c>
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
@@ -4225,13 +4237,13 @@
     </row>
     <row r="61" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>114</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>103</v>
@@ -4244,16 +4256,16 @@
     </row>
     <row r="62" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>228</v>
+        <v>310</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>134</v>
+        <v>313</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>104</v>
+        <v>308</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="6"/>
@@ -4261,16 +4273,16 @@
     </row>
     <row r="63" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>137</v>
+        <v>314</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>126</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="6"/>
@@ -4295,7 +4307,7 @@
     </row>
     <row r="65" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="24" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B65" s="23" t="s">
         <v>116</v>
@@ -4312,7 +4324,7 @@
     </row>
     <row r="66" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="24" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B66" s="24" t="s">
         <v>117</v>
@@ -4392,7 +4404,7 @@
     </row>
     <row r="73" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A73" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B73" s="30"/>
       <c r="C73" s="30"/>
@@ -4426,13 +4438,13 @@
     </row>
     <row r="75" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>114</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>103</v>
@@ -4445,13 +4457,13 @@
     </row>
     <row r="76" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
-        <v>144</v>
+        <v>316</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>233</v>
+        <v>321</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>104</v>
@@ -4459,18 +4471,18 @@
       <c r="E76" s="4"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
-        <v>235</v>
+        <v>320</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>234</v>
+        <v>317</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>80</v>
@@ -4481,10 +4493,10 @@
     </row>
     <row r="78" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
-        <v>236</v>
+        <v>318</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>145</v>
+        <v>319</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>81</v>
@@ -4515,7 +4527,7 @@
     </row>
     <row r="80" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A80" s="24" t="s">
-        <v>131</v>
+        <v>306</v>
       </c>
       <c r="B80" s="23" t="s">
         <v>116</v>
@@ -4532,7 +4544,7 @@
     </row>
     <row r="81" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A81" s="24" t="s">
-        <v>132</v>
+        <v>307</v>
       </c>
       <c r="B81" s="24" t="s">
         <v>117</v>
@@ -4604,7 +4616,7 @@
         <v>128</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>100</v>
@@ -4612,7 +4624,7 @@
     </row>
     <row r="89" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A89" s="30" t="s">
-        <v>147</v>
+        <v>315</v>
       </c>
       <c r="B89" s="30"/>
       <c r="C89" s="30"/>
@@ -4652,7 +4664,7 @@
         <v>114</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>103</v>
@@ -4665,16 +4677,16 @@
     </row>
     <row r="92" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>150</v>
+        <v>308</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="6"/>
@@ -4682,16 +4694,16 @@
     </row>
     <row r="93" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>126</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="6"/>
@@ -4739,7 +4751,7 @@
         <v>117</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>125</v>
@@ -4831,8 +4843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4845,7 +4857,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="30" t="s">
-        <v>237</v>
+        <v>322</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -4879,10 +4891,10 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>84</v>
@@ -4898,13 +4910,13 @@
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>80</v>
@@ -4915,13 +4927,13 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>152</v>
+        <v>325</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>125</v>
@@ -4932,16 +4944,16 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -4952,10 +4964,10 @@
         <v>112</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>241</v>
+        <v>332</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>100</v>
@@ -4963,32 +4975,32 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>249</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>119</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>81</v>
@@ -4999,7 +5011,7 @@
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="30" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
@@ -5033,13 +5045,13 @@
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>103</v>
@@ -5052,13 +5064,13 @@
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>80</v>
@@ -5066,15 +5078,15 @@
       <c r="E17" s="4"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>252</v>
+        <v>323</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>96</v>
@@ -5088,10 +5100,10 @@
     </row>
     <row r="19" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>99</v>
@@ -5105,29 +5117,29 @@
     </row>
     <row r="20" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
-        <v>266</v>
+        <v>327</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>96</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
-        <v>267</v>
+        <v>328</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>96</v>
@@ -5138,18 +5150,18 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
-        <v>268</v>
+        <v>329</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>100</v>
@@ -5160,13 +5172,13 @@
     </row>
     <row r="23" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
-        <v>269</v>
+        <v>330</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>102</v>
@@ -5177,10 +5189,10 @@
     </row>
     <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="24" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>96</v>
@@ -5189,7 +5201,7 @@
         <v>100</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5197,7 +5209,7 @@
         <v>75</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>81</v>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息表" sheetId="1" r:id="rId1"/>
     <sheet name="房租租赁" sheetId="5" r:id="rId2"/>
     <sheet name="物业管理" sheetId="6" r:id="rId3"/>
     <sheet name="知识分享" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="358">
   <si>
     <t>界面字段名</t>
   </si>
@@ -777,10 +778,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>已入住、空置</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>房屋编号</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -1505,6 +1502,110 @@
   </si>
   <si>
     <t>Wzt</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>已入住、空置</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>高区</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>到期日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月23</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月23</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Csqbbh</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请表编号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片附件</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mxiaciriqi</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次缴纳日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于报警期限识别</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于报警期限识别</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -1745,7 +1846,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1881,6 +1982,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2242,17 +2349,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="45" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="45" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2275,9 +2376,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="45" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -2326,6 +2424,48 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="45" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2703,10 +2843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2717,25 +2857,25 @@
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="15.375" customWidth="1"/>
     <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="79.375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="79.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="21"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="4"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
     </row>
     <row r="4" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2760,264 +2900,270 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" s="29" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="28"/>
+    </row>
+    <row r="8" spans="1:7" s="29" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="23" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" spans="1:7" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" s="29" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="26" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="D13" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="29"/>
-    </row>
-    <row r="12" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+    </row>
+    <row r="14" spans="1:7" s="34" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" s="26" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="34" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+    </row>
+    <row r="16" spans="1:7" s="34" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D16" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="E16" s="28"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" spans="1:7" s="34" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D17" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="E17" s="28"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="1:7" s="34" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="2" t="s">
+      <c r="E18" s="28"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="28" t="s">
         <v>72</v>
       </c>
     </row>
+    <row r="19" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G19" s="39"/>
+    </row>
+    <row r="20" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G20" s="39"/>
+    </row>
     <row r="26" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="30" t="s">
-        <v>269</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
+      <c r="A26" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -3042,228 +3188,232 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
+    <row r="28" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="B29" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" s="34" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="D36" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="31"/>
+    </row>
+    <row r="37" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="19" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G34" s="25"/>
-    </row>
-    <row r="35" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="22"/>
-    </row>
-    <row r="38" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="22" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="9" t="s">
+      <c r="E39" s="4"/>
+      <c r="F39" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G39" s="4"/>
+      <c r="G39" s="2"/>
     </row>
     <row r="45" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
+      <c r="A45" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
     </row>
     <row r="46" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -3288,164 +3438,181 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="16" t="s">
+    <row r="47" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="B47" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="C47" s="6" t="s">
+      <c r="B48" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="6"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="24" t="s">
+      <c r="D54" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G54" s="22"/>
+    </row>
+    <row r="55" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B49" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="6"/>
-    </row>
-    <row r="50" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="B52" s="23" t="s">
+    </row>
+    <row r="56" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B56" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D53" s="6" t="s">
+      <c r="C56" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G53" s="25"/>
-    </row>
-    <row r="54" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="B55" s="24" t="s">
+      <c r="E56" s="4"/>
+      <c r="F56" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="G55" s="4"/>
+      <c r="G56" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3461,10 +3628,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3476,15 +3643,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="A1" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3509,231 +3676,231 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C7" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G15" s="5"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
+      <c r="A18" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
     </row>
     <row r="19" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -3758,125 +3925,125 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B21" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="24" t="s">
+      <c r="C21" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B22" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
+      <c r="D23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="B23" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
+      <c r="B24" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="B24" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G26" s="5"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="30" t="s">
-        <v>301</v>
-      </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
+      <c r="A31" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
     </row>
     <row r="32" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -3901,937 +4068,975 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
+    <row r="33" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="B39" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A46" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+    </row>
+    <row r="47" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="F48" s="4"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D49" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D50" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="E50" s="4"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="B38" s="24" t="s">
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C53" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D53" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G53" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G54" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A60" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+    </row>
+    <row r="61" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G68" s="3"/>
+    </row>
+    <row r="69" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G69" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A74" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+    </row>
+    <row r="75" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="4"/>
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+    </row>
+    <row r="81" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="21" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="C39" s="20" t="s">
+      <c r="B81" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E81" s="4"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G84" s="3"/>
+    </row>
+    <row r="85" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C86" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="24" t="s">
+      <c r="D86" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="6" t="s">
+      <c r="B87" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="30" t="s">
-        <v>309</v>
-      </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-    </row>
-    <row r="46" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+    <row r="91" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A91" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="43"/>
+      <c r="G91" s="43"/>
+    </row>
+    <row r="92" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="4" t="s">
+    <row r="93" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="6"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B48" s="23" t="s">
+      <c r="F93" s="4"/>
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C96" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D96" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-    </row>
-    <row r="49" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="C49" s="6" t="s">
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+    </row>
+    <row r="97" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D97" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="6"/>
-    </row>
-    <row r="50" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="B50" s="24" t="s">
+      <c r="E97" s="4"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="4"/>
+    </row>
+    <row r="98" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B98" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D50" s="6" t="s">
+      <c r="C98" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="24" t="s">
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B99" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C99" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D99" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G51" s="5"/>
-    </row>
-    <row r="52" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="24" t="s">
+      <c r="G99" s="3"/>
+    </row>
+    <row r="100" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B100" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C100" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D100" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G100" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="24" t="s">
+    <row r="101" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B101" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C101" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D101" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G101" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="24" t="s">
+    <row r="102" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B54" s="24" t="s">
+      <c r="B102" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C102" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A59" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-    </row>
-    <row r="60" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="6"/>
-      <c r="G61" s="4"/>
-    </row>
-    <row r="62" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="4"/>
-    </row>
-    <row r="63" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="4"/>
-    </row>
-    <row r="64" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-    </row>
-    <row r="65" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E65" s="6"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="6"/>
-    </row>
-    <row r="66" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="4"/>
-    </row>
-    <row r="67" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="B67" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G67" s="5"/>
-    </row>
-    <row r="68" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="B68" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G68" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="B69" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A73" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="B73" s="30"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-    </row>
-    <row r="74" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75" s="6"/>
-      <c r="G75" s="4"/>
-    </row>
-    <row r="76" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="4"/>
-    </row>
-    <row r="78" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="4"/>
-    </row>
-    <row r="79" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B79" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-    </row>
-    <row r="80" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="B80" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E80" s="6"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="6"/>
-    </row>
-    <row r="81" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="B81" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="4"/>
-    </row>
-    <row r="82" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="B82" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G82" s="5"/>
-    </row>
-    <row r="83" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="B83" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G83" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="B84" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B85" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C85" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A89" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="B89" s="30"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="30"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="30"/>
-    </row>
-    <row r="90" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="6"/>
-      <c r="G91" s="4"/>
-    </row>
-    <row r="92" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B92" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="E92" s="4"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="4"/>
-    </row>
-    <row r="93" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E93" s="4"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="4"/>
-    </row>
-    <row r="94" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B94" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-    </row>
-    <row r="95" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="B95" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E95" s="6"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="6"/>
-    </row>
-    <row r="96" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="B96" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="4"/>
-    </row>
-    <row r="97" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="B97" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G97" s="5"/>
-    </row>
-    <row r="98" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="B98" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G98" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="B99" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="C99" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B100" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C100" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D100" s="6" t="s">
+      <c r="D102" s="4" t="s">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A89:G89"/>
+    <mergeCell ref="A91:G91"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A18:G18"/>
     <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A74:G74"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4843,8 +5048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4856,15 +5061,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="A1" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -4889,136 +5094,136 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B4" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C9" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="A14" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -5043,178 +5248,178 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="C17" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B18" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B19" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="C19" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="C18" s="6" t="s">
+    <row r="21" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="s">
-        <v>327</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="D21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6" t="s">
+      <c r="D24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
-        <v>330</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
     <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="20" t="s">
+      <c r="B25" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5247,15 +5452,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -5280,113 +5485,113 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="17" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5398,4 +5603,113 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="41">
+        <v>42480</v>
+      </c>
+      <c r="C2" s="41">
+        <v>42401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>339</v>
+      </c>
+      <c r="C3" s="41">
+        <v>42401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" s="41">
+        <v>42510</v>
+      </c>
+      <c r="C6" s="41">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>340</v>
+      </c>
+      <c r="C7" s="41">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B8" s="41">
+        <v>42480</v>
+      </c>
+      <c r="C8" s="41">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>339</v>
+      </c>
+      <c r="C9" s="41">
+        <v>42430</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="26" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="364">
   <si>
     <t>界面字段名</t>
   </si>
@@ -659,10 +659,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>根据付款方式和合同签订日期自动生成，留空代表取消了预警</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>物业费收款单表  表名：ZZZ_moneyWYFSKD</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -878,10 +874,6 @@
   </si>
   <si>
     <t>Haddtime</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
@@ -1565,19 +1557,51 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片附件</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mxiaciriqi</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次缴纳日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于报警期限识别</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于报警期限识别</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
     <t>申请表编号</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>nvarchar(2000)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(2000)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片附件</t>
+    <t>下次缴纳日期</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
@@ -1593,19 +1617,19 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>下次缴纳日期</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于报警期限识别</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于报警期限识别</t>
+    <t>是</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同生效日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据付款方式和合同签订日期自动生成，留空代表取消了预警。通过最后一个房租收款单反写。</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hshengxiaoriqi</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -2845,8 +2869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2868,7 +2892,7 @@
     </row>
     <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="43" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
@@ -2905,7 +2929,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
@@ -2924,7 +2948,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>32</v>
@@ -3156,7 +3180,7 @@
     </row>
     <row r="26" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="43" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B26" s="43"/>
       <c r="C26" s="43"/>
@@ -3190,10 +3214,10 @@
     </row>
     <row r="28" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>25</v>
@@ -3209,10 +3233,10 @@
     </row>
     <row r="29" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>32</v>
@@ -3223,15 +3247,15 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>33</v>
@@ -3241,18 +3265,18 @@
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>34</v>
@@ -3266,10 +3290,10 @@
     </row>
     <row r="32" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>84</v>
@@ -3283,7 +3307,7 @@
     </row>
     <row r="33" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>85</v>
@@ -3300,10 +3324,10 @@
     </row>
     <row r="34" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>86</v>
@@ -3315,13 +3339,13 @@
     </row>
     <row r="35" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>78</v>
@@ -3332,10 +3356,10 @@
     </row>
     <row r="36" spans="1:7" s="34" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="30" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C36" s="31" t="s">
         <v>25</v>
@@ -3349,13 +3373,13 @@
     </row>
     <row r="37" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>77</v>
@@ -3363,15 +3387,15 @@
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="19" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>86</v>
@@ -3382,12 +3406,12 @@
       <c r="E38" s="9"/>
       <c r="F38" s="8"/>
       <c r="G38" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>90</v>
@@ -3400,13 +3424,13 @@
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G39" s="2"/>
     </row>
     <row r="45" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="43" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B45" s="43"/>
       <c r="C45" s="43"/>
@@ -3440,13 +3464,13 @@
     </row>
     <row r="47" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>7</v>
@@ -3459,10 +3483,10 @@
     </row>
     <row r="48" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>92</v>
@@ -3473,15 +3497,15 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>59</v>
@@ -3495,16 +3519,16 @@
     </row>
     <row r="50" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>344</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>346</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="7"/>
@@ -3512,16 +3536,16 @@
     </row>
     <row r="51" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="7"/>
@@ -3529,10 +3553,10 @@
     </row>
     <row r="52" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>84</v>
@@ -3546,10 +3570,10 @@
     </row>
     <row r="53" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>83</v>
@@ -3563,13 +3587,13 @@
     </row>
     <row r="54" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>103</v>
@@ -3578,10 +3602,10 @@
     </row>
     <row r="55" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>89</v>
@@ -3592,15 +3616,15 @@
       <c r="E55" s="4"/>
       <c r="F55" s="7"/>
       <c r="G55" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>99</v>
@@ -3610,7 +3634,7 @@
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G56" s="2"/>
     </row>
@@ -3628,10 +3652,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3644,7 +3668,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="43" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -3678,10 +3702,10 @@
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>93</v>
@@ -3697,10 +3721,10 @@
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>92</v>
@@ -3711,15 +3735,15 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>86</v>
@@ -3733,10 +3757,10 @@
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>91</v>
@@ -3750,16 +3774,16 @@
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>276</v>
+        <v>361</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>185</v>
+        <v>363</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>190</v>
+        <v>359</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="7"/>
@@ -3767,925 +3791,925 @@
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>83</v>
+        <v>358</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="4" t="s">
-        <v>279</v>
-      </c>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>284</v>
+        <v>185</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>285</v>
+        <v>83</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>286</v>
+        <v>9</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G9" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" s="5" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="B12" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B14" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G15" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-    </row>
-    <row r="19" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G16" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+    </row>
+    <row r="20" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C20" s="4" t="s">
+    <row r="21" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>102</v>
+        <v>194</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="7"/>
+      <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>195</v>
+        <v>200</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>252</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G26" s="3"/>
-    </row>
-    <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="43" t="s">
-        <v>300</v>
-      </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-    </row>
-    <row r="32" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G27" s="3"/>
+    </row>
+    <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="43" t="s">
+        <v>298</v>
+      </c>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+    </row>
+    <row r="33" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D33" s="4" t="s">
+    <row r="34" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>205</v>
+        <v>294</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>345</v>
-      </c>
       <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="2"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
-        <v>355</v>
+        <v>212</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>351</v>
+        <v>204</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>353</v>
+        <v>207</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="B38" s="21" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>256</v>
+      <c r="C38" s="4" t="s">
+        <v>350</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="3"/>
+        <v>351</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B39" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B40" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C40" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G39" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="C40" s="17" t="s">
+      <c r="G40" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="C41" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
+      <c r="G41" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="D41" s="4" t="s">
+      <c r="B42" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A46" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-    </row>
-    <row r="47" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A47" s="43" t="s">
+        <v>306</v>
+      </c>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+    </row>
+    <row r="48" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13" t="s">
+    <row r="49" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B49" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+      <c r="G49" s="2"/>
     </row>
     <row r="50" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B51" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="21" t="s">
+      <c r="E51" s="4"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B52" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G52" s="3"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="2"/>
     </row>
     <row r="53" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B54" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C54" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G54" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="21" t="s">
+    <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B55" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C55" s="17" t="s">
         <v>126</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>88</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A60" s="43" t="s">
-        <v>311</v>
-      </c>
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
-    </row>
-    <row r="61" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+      <c r="G55" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A61" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+    </row>
+    <row r="62" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="B62" s="10" t="s">
+    <row r="63" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C63" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D63" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="4"/>
-      <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="E63" s="2"/>
       <c r="F63" s="4"/>
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B64" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="B64" s="11" t="s">
-        <v>313</v>
-      </c>
       <c r="C64" s="4" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>79</v>
+        <v>305</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="4"/>
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>115</v>
+      <c r="A65" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>311</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E65" s="2"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
+      <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21" t="s">
-        <v>219</v>
+        <v>95</v>
       </c>
       <c r="B66" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B67" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C67" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D67" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="4"/>
-    </row>
-    <row r="67" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="B67" s="21" t="s">
+      <c r="E67" s="4"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B68" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C68" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D68" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="2"/>
-    </row>
-    <row r="68" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B68" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G68" s="3"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G69" s="3"/>
+    </row>
+    <row r="70" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B69" s="21" t="s">
+      <c r="B70" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C70" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D70" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G70" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="21" t="s">
+    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B70" s="20" t="s">
+      <c r="B71" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C71" s="17" t="s">
         <v>126</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>88</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A74" s="43" t="s">
+      <c r="G71" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A75" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+    </row>
+    <row r="76" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="43"/>
-    </row>
-    <row r="75" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B76" s="10" t="s">
+      <c r="B77" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C77" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D77" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F76" s="4"/>
-      <c r="G76" s="2"/>
-    </row>
-    <row r="77" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E77" s="2"/>
       <c r="F77" s="4"/>
-      <c r="G77" s="4" t="s">
-        <v>221</v>
-      </c>
+      <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="4"/>
-      <c r="G78" s="2"/>
+      <c r="G78" s="4" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="79" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
         <v>317</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>80</v>
@@ -4695,348 +4719,365 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>115</v>
+      <c r="A80" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>316</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" s="4"/>
+        <v>81</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E80" s="2"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
+      <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A81" s="21" t="s">
-        <v>305</v>
+        <v>95</v>
       </c>
       <c r="B81" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="B82" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D82" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E81" s="4"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="4"/>
-    </row>
-    <row r="82" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="B82" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="2"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A83" s="21" t="s">
-        <v>355</v>
+        <v>304</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>351</v>
+        <v>117</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>353</v>
+        <v>118</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>354</v>
+        <v>125</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
-      <c r="G83" s="4" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
-        <v>111</v>
+        <v>352</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>120</v>
+        <v>348</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>350</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G84" s="3"/>
+        <v>351</v>
+      </c>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="85" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A85" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G85" s="3"/>
+    </row>
+    <row r="86" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B85" s="21" t="s">
+      <c r="B86" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C85" s="17" t="s">
+      <c r="C86" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D86" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G86" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="21" t="s">
+    <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B86" s="20" t="s">
+      <c r="B87" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="C87" s="17" t="s">
         <v>126</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B87" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>143</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A91" s="43" t="s">
-        <v>314</v>
-      </c>
-      <c r="B91" s="43"/>
-      <c r="C91" s="43"/>
-      <c r="D91" s="43"/>
-      <c r="E91" s="43"/>
-      <c r="F91" s="43"/>
-      <c r="G91" s="43"/>
-    </row>
-    <row r="92" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+      <c r="G87" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A92" s="43" t="s">
+        <v>312</v>
+      </c>
+      <c r="B92" s="43"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="43"/>
+    </row>
+    <row r="93" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F93" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="13" t="s">
+    <row r="94" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B94" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C94" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D94" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E94" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F93" s="4"/>
-      <c r="G93" s="2"/>
-    </row>
-    <row r="94" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="E94" s="2"/>
       <c r="F94" s="4"/>
       <c r="G94" s="2"/>
     </row>
     <row r="95" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>146</v>
+        <v>305</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="4"/>
       <c r="G95" s="2"/>
     </row>
     <row r="96" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96" s="20" t="s">
-        <v>115</v>
+      <c r="A96" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E96" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E96" s="2"/>
       <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
+      <c r="G96" s="2"/>
     </row>
     <row r="97" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A97" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+    </row>
+    <row r="98" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="B97" s="20" t="s">
+      <c r="B98" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C98" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D98" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E97" s="4"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="4"/>
-    </row>
-    <row r="98" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="21" t="s">
+      <c r="E98" s="4"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="4"/>
+    </row>
+    <row r="99" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="B98" s="21" t="s">
+      <c r="B99" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D98" s="4" t="s">
+      <c r="C99" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="2"/>
-    </row>
-    <row r="99" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B99" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G99" s="3"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="2"/>
     </row>
     <row r="100" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A100" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B100" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G100" s="3"/>
+    </row>
+    <row r="101" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B100" s="21" t="s">
+      <c r="B101" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C100" s="17" t="s">
+      <c r="C101" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D101" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G101" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="21" t="s">
+    <row r="102" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B101" s="20" t="s">
+      <c r="B102" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C101" s="17" t="s">
+      <c r="C102" s="17" t="s">
         <v>126</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B102" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>88</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>100</v>
       </c>
+      <c r="G102" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B103" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="A92:G92"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="A74:G74"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A61:G61"/>
+    <mergeCell ref="A75:G75"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5062,7 +5103,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="43" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -5096,10 +5137,10 @@
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>84</v>
@@ -5115,13 +5156,13 @@
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>80</v>
@@ -5132,13 +5173,13 @@
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>125</v>
@@ -5149,16 +5190,16 @@
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -5169,10 +5210,10 @@
         <v>112</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>100</v>
@@ -5180,32 +5221,32 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>119</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>81</v>
@@ -5216,7 +5257,7 @@
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="43" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B14" s="43"/>
       <c r="C14" s="43"/>
@@ -5250,13 +5291,13 @@
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>103</v>
@@ -5269,13 +5310,13 @@
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>80</v>
@@ -5283,15 +5324,15 @@
       <c r="E17" s="2"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>96</v>
@@ -5305,10 +5346,10 @@
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>99</v>
@@ -5322,29 +5363,29 @@
     </row>
     <row r="20" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>96</v>
@@ -5355,18 +5396,18 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>100</v>
@@ -5377,13 +5418,13 @@
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>102</v>
@@ -5394,10 +5435,10 @@
     </row>
     <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>96</v>
@@ -5406,7 +5447,7 @@
         <v>100</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5414,7 +5455,7 @@
         <v>75</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>81</v>
@@ -5622,18 +5663,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1" t="s">
         <v>334</v>
-      </c>
-      <c r="B1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B2" s="41">
         <v>42480</v>
@@ -5644,10 +5685,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C3" s="41">
         <v>42401</v>
@@ -5655,18 +5696,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5" t="s">
         <v>334</v>
-      </c>
-      <c r="B5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C5" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B6" s="41">
         <v>42510</v>
@@ -5677,10 +5718,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C7" s="41">
         <v>42430</v>
@@ -5688,7 +5729,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B8" s="41">
         <v>42480</v>
@@ -5699,10 +5740,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C9" s="41">
         <v>42430</v>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -11,14 +11,15 @@
     <sheet name="房租租赁" sheetId="5" r:id="rId2"/>
     <sheet name="物业管理" sheetId="6" r:id="rId3"/>
     <sheet name="知识分享" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
+    <sheet name="车位合同和物业合同" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="392">
   <si>
     <t>界面字段名</t>
   </si>
@@ -527,10 +528,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>Hyjrq</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>合同号</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -1158,10 +1155,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>CID</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>TZchuangjianren</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -1246,10 +1239,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>Cczqx</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>承租资格期限</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -1353,10 +1342,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>M_HID</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>MID</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -1369,15 +1354,359 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
+    <t>Mchuangjianren</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>草稿、生效</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款凭证号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款金额</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>押金收款单表  表名：ZZZ_moneyYJSKD</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>原押金收款单号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>原押金凭证号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>押金退款单表  表名：ZZZ_moneyYJTHD</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_MID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_Mpz</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他退款单表  表名：ZZZ_moneyQTTKD</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费项目</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myouxiao1</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效区间结束日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myouxiao2</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效区间开始日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mxiangmu</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修申请单表  表名：ZZZ_WXQQ</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jgldh</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wsqrq</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wwenti</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wbeizhu</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否保险期内</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否发生费用</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用金额</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理过程描述</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>已申请、处理中、结单</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wzt</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>已入住、空置</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>高区</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>到期日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月23</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月23</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Csqbbh</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片附件</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mxiaciriqi</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次缴纳日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于报警期限识别</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于报警期限识别</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请表编号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次缴纳日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同生效日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据付款方式和合同签订日期自动生成，留空代表取消了预警。通过最后一个房租收款单反写。</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hshengxiaoriqi</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>入住合同表主表  表名：ZZZ_RZHT</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hyjrq</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>HID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
     <t>租金收款单表  表名：ZZZ_moneyZJSKD</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>Mchuangjianren</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>入住合同表主表  表名：ZZZ_RZHT</t>
+    <t>Mxiaciriqi</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>zgbz</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>zgnianxian</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 0)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 0)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>子表编号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表编号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>年限</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>资格开始日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>资格结束日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>zgid</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>zgbegin</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cczqx</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>CID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>zgend</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>承租人表子表-承租资格信息  表名：ZZZ_chengzuren_zige</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>zg_CID</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
@@ -1385,251 +1714,35 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>草稿、生效</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>收款凭证号</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>收款金额</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>押金收款单表  表名：ZZZ_moneyYJSKD</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>原押金收款单号</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>原押金凭证号</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>押金退款单表  表名：ZZZ_moneyYJTHD</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>M_MID</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>M_Mpz</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他退款单表  表名：ZZZ_moneyQTTKD</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>收费项目</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Myouxiao1</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效区间结束日期</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Myouxiao2</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效区间开始日期</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mxiangmu</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修申请单表  表名：ZZZ_WXQQ</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jgldh</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wsqrq</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wwenti</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wbeizhu</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否保险期内</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否发生费用</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用金额</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理过程描述</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>已申请、处理中、结单</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wzt</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>已入住、空置</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>高区</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>到期日期</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前日期</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月23</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月23</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Csqbbh</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(2000)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(2000)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片附件</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mxiaciriqi</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>下次缴纳日期</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于报警期限识别</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于报警期限识别</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请表编号</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>下次缴纳日期</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mxiaciriqi</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同生效日期</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据付款方式和合同签订日期自动生成，留空代表取消了预警。通过最后一个房租收款单反写。</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hshengxiaoriqi</t>
+    <t>付款方式</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款预警日</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>留空代表取消了预警。通过最后一个车位类型的物业费收款单反写。</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业合同主表  表名：ZZZ_HTwuye</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hzhuangtai</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>车位合同主表  表名：ZZZ_HTchewei</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>草稿,生效,已退租</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -2867,10 +2980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2892,7 +3005,7 @@
     </row>
     <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
@@ -2929,7 +3042,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
@@ -2948,7 +3061,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>32</v>
@@ -3180,7 +3293,7 @@
     </row>
     <row r="26" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="43" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B26" s="43"/>
       <c r="C26" s="43"/>
@@ -3214,10 +3327,10 @@
     </row>
     <row r="28" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>25</v>
@@ -3233,10 +3346,10 @@
     </row>
     <row r="29" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>32</v>
@@ -3247,15 +3360,15 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>33</v>
@@ -3265,18 +3378,18 @@
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>34</v>
@@ -3290,10 +3403,10 @@
     </row>
     <row r="32" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>84</v>
@@ -3307,13 +3420,13 @@
     </row>
     <row r="33" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>85</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>83</v>
+        <v>368</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>76</v>
@@ -3324,10 +3437,10 @@
     </row>
     <row r="34" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>86</v>
@@ -3339,13 +3452,13 @@
     </row>
     <row r="35" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>78</v>
@@ -3356,10 +3469,10 @@
     </row>
     <row r="36" spans="1:7" s="34" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C36" s="31" t="s">
         <v>25</v>
@@ -3373,13 +3486,13 @@
     </row>
     <row r="37" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>77</v>
@@ -3387,15 +3500,15 @@
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="19" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>86</v>
@@ -3406,12 +3519,12 @@
       <c r="E38" s="9"/>
       <c r="F38" s="8"/>
       <c r="G38" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>90</v>
@@ -3424,13 +3537,13 @@
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G39" s="2"/>
     </row>
     <row r="45" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B45" s="43"/>
       <c r="C45" s="43"/>
@@ -3464,13 +3577,13 @@
     </row>
     <row r="47" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>251</v>
+        <v>379</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>7</v>
@@ -3483,10 +3596,10 @@
     </row>
     <row r="48" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>92</v>
@@ -3497,15 +3610,15 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>59</v>
@@ -3519,16 +3632,16 @@
     </row>
     <row r="50" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="7"/>
@@ -3536,16 +3649,16 @@
     </row>
     <row r="51" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="7"/>
@@ -3553,10 +3666,10 @@
     </row>
     <row r="52" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>84</v>
@@ -3570,10 +3683,10 @@
     </row>
     <row r="53" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>83</v>
@@ -3587,13 +3700,13 @@
     </row>
     <row r="54" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>270</v>
+        <v>378</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>178</v>
+        <v>361</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>103</v>
@@ -3602,10 +3715,10 @@
     </row>
     <row r="55" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>89</v>
@@ -3616,15 +3729,15 @@
       <c r="E55" s="4"/>
       <c r="F55" s="7"/>
       <c r="G55" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>99</v>
@@ -3634,15 +3747,154 @@
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G56" s="2"/>
     </row>
+    <row r="59" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="43" t="s">
+        <v>381</v>
+      </c>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+    </row>
+    <row r="60" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="4"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A59:G59"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3654,8 +3906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3668,7 +3920,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="43" t="s">
-        <v>300</v>
+        <v>356</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -3702,10 +3954,10 @@
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>301</v>
+        <v>358</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>93</v>
@@ -3721,10 +3973,10 @@
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>92</v>
@@ -3735,15 +3987,15 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>86</v>
@@ -3757,10 +4009,10 @@
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>91</v>
@@ -3774,16 +4026,16 @@
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="7"/>
@@ -3791,13 +4043,13 @@
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>9</v>
@@ -3808,10 +4060,10 @@
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>83</v>
@@ -3822,21 +4074,21 @@
       <c r="E9" s="4"/>
       <c r="F9" s="7"/>
       <c r="G9" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="7"/>
@@ -3844,27 +4096,27 @@
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>107</v>
+        <v>357</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>81</v>
@@ -3878,10 +4130,10 @@
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>97</v>
@@ -3895,10 +4147,10 @@
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>96</v>
@@ -3914,13 +4166,13 @@
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>80</v>
@@ -3934,7 +4186,7 @@
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="43" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B19" s="43"/>
       <c r="C19" s="43"/>
@@ -3968,10 +4220,10 @@
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>84</v>
@@ -3987,13 +4239,13 @@
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>10</v>
@@ -4004,10 +4256,10 @@
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>86</v>
@@ -4021,13 +4273,13 @@
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>79</v>
@@ -4038,10 +4290,10 @@
     </row>
     <row r="25" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>89</v>
@@ -4052,15 +4304,15 @@
       <c r="E25" s="4"/>
       <c r="F25" s="7"/>
       <c r="G25" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>82</v>
@@ -4077,7 +4329,7 @@
     </row>
     <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="43" t="s">
-        <v>298</v>
+        <v>359</v>
       </c>
       <c r="B32" s="43"/>
       <c r="C32" s="43"/>
@@ -4111,13 +4363,13 @@
     </row>
     <row r="34" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>7</v>
@@ -4130,10 +4382,10 @@
     </row>
     <row r="35" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>294</v>
+        <v>114</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>92</v>
@@ -4147,13 +4399,13 @@
     </row>
     <row r="36" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>103</v>
@@ -4164,16 +4416,16 @@
     </row>
     <row r="37" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -4181,32 +4433,32 @@
     </row>
     <row r="38" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>13</v>
@@ -4215,36 +4467,36 @@
     </row>
     <row r="40" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>100</v>
       </c>
       <c r="G40" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>80</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4252,10 +4504,10 @@
         <v>75</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>100</v>
@@ -4263,7 +4515,7 @@
     </row>
     <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="43" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B47" s="43"/>
       <c r="C47" s="43"/>
@@ -4300,7 +4552,7 @@
         <v>106</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>93</v>
@@ -4316,10 +4568,10 @@
     </row>
     <row r="50" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>92</v>
@@ -4333,13 +4585,13 @@
     </row>
     <row r="51" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>103</v>
@@ -4350,16 +4602,16 @@
     </row>
     <row r="52" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B52" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="D52" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -4367,13 +4619,13 @@
     </row>
     <row r="53" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>79</v>
@@ -4382,36 +4634,36 @@
     </row>
     <row r="54" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>100</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4419,7 +4671,7 @@
         <v>75</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C56" s="17" t="s">
         <v>88</v>
@@ -4430,7 +4682,7 @@
     </row>
     <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="43" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B61" s="43"/>
       <c r="C61" s="43"/>
@@ -4464,13 +4716,13 @@
     </row>
     <row r="63" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>103</v>
@@ -4483,16 +4735,16 @@
     </row>
     <row r="64" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="4"/>
@@ -4500,13 +4752,13 @@
     </row>
     <row r="65" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>79</v>
@@ -4520,7 +4772,7 @@
         <v>95</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>92</v>
@@ -4534,13 +4786,13 @@
     </row>
     <row r="67" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>103</v>
@@ -4551,16 +4803,16 @@
     </row>
     <row r="68" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B68" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="D68" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -4568,13 +4820,13 @@
     </row>
     <row r="69" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>79</v>
@@ -4583,36 +4835,36 @@
     </row>
     <row r="70" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G70" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>100</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4620,7 +4872,7 @@
         <v>75</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="17" t="s">
         <v>88</v>
@@ -4631,7 +4883,7 @@
     </row>
     <row r="75" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A75" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B75" s="43"/>
       <c r="C75" s="43"/>
@@ -4665,13 +4917,13 @@
     </row>
     <row r="77" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>103</v>
@@ -4684,13 +4936,13 @@
     </row>
     <row r="78" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>104</v>
@@ -4698,18 +4950,18 @@
       <c r="E78" s="2"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>80</v>
@@ -4720,10 +4972,10 @@
     </row>
     <row r="80" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>81</v>
@@ -4740,7 +4992,7 @@
         <v>95</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>92</v>
@@ -4754,13 +5006,13 @@
     </row>
     <row r="82" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>103</v>
@@ -4771,16 +5023,16 @@
     </row>
     <row r="83" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A83" s="21" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B83" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="D83" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
@@ -4788,32 +5040,32 @@
     </row>
     <row r="84" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A85" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>79</v>
@@ -4822,36 +5074,36 @@
     </row>
     <row r="86" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A86" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A87" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>100</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4859,10 +5111,10 @@
         <v>75</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>100</v>
@@ -4870,7 +5122,7 @@
     </row>
     <row r="92" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A92" s="43" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B92" s="43"/>
       <c r="C92" s="43"/>
@@ -4904,13 +5156,13 @@
     </row>
     <row r="94" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>103</v>
@@ -4923,16 +5175,16 @@
     </row>
     <row r="95" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="4"/>
@@ -4940,16 +5192,16 @@
     </row>
     <row r="96" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D96" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="4"/>
@@ -4960,7 +5212,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>92</v>
@@ -4974,13 +5226,13 @@
     </row>
     <row r="98" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A98" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>103</v>
@@ -4991,16 +5243,16 @@
     </row>
     <row r="99" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A99" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
@@ -5008,13 +5260,13 @@
     </row>
     <row r="100" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A100" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>79</v>
@@ -5023,36 +5275,36 @@
     </row>
     <row r="101" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A101" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G101" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A102" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>100</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5060,7 +5312,7 @@
         <v>75</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C103" s="17" t="s">
         <v>88</v>
@@ -5103,7 +5355,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="43" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -5137,10 +5389,10 @@
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>84</v>
@@ -5156,13 +5408,13 @@
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>80</v>
@@ -5173,16 +5425,16 @@
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="4"/>
@@ -5190,16 +5442,16 @@
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -5207,13 +5459,13 @@
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>100</v>
@@ -5221,32 +5473,32 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>81</v>
@@ -5257,7 +5509,7 @@
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="43" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B14" s="43"/>
       <c r="C14" s="43"/>
@@ -5291,13 +5543,13 @@
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>103</v>
@@ -5310,13 +5562,13 @@
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>80</v>
@@ -5324,21 +5576,21 @@
       <c r="E17" s="2"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="4"/>
@@ -5346,10 +5598,10 @@
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>99</v>
@@ -5363,29 +5615,29 @@
     </row>
     <row r="20" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>96</v>
@@ -5396,18 +5648,18 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>100</v>
@@ -5418,13 +5670,13 @@
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>102</v>
@@ -5435,10 +5687,10 @@
     </row>
     <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>96</v>
@@ -5447,7 +5699,7 @@
         <v>100</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5455,7 +5707,7 @@
         <v>75</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>81</v>
@@ -5648,6 +5900,528 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="44.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" s="5" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G16" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G32" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A19:G19"/>
+  </mergeCells>
+  <phoneticPr fontId="26" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
@@ -5663,18 +6437,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B2" s="41">
         <v>42480</v>
@@ -5685,10 +6459,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C3" s="41">
         <v>42401</v>
@@ -5696,18 +6470,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B5" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C5" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B6" s="41">
         <v>42510</v>
@@ -5718,10 +6492,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C7" s="41">
         <v>42430</v>
@@ -5729,7 +6503,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B8" s="41">
         <v>42480</v>
@@ -5740,10 +6514,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C9" s="41">
         <v>42430</v>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="395">
   <si>
     <t>界面字段名</t>
   </si>
@@ -656,10 +656,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>物业费收款单表  表名：ZZZ_moneyWYFSKD</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>收款单号</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -1322,427 +1318,443 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
+    <t>FID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>H_FID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>已承租、未承租</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cshenfenzheng</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fzuoluo</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>退租记录表  表名：ZZZ_tuizujilu</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mchuangjianren</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>草稿、生效</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款凭证号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款金额</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>押金收款单表  表名：ZZZ_moneyYJSKD</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>原押金收款单号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>原押金凭证号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>押金退款单表  表名：ZZZ_moneyYJTHD</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_MID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_Mpz</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他退款单表  表名：ZZZ_moneyQTTKD</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费项目</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myouxiao1</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效区间结束日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myouxiao2</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效区间开始日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修申请单表  表名：ZZZ_WXQQ</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jgldh</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wsqrq</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wwenti</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wbeizhu</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否保险期内</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否发生费用</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用金额</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理过程描述</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>已申请、处理中、结单</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wzt</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>已入住、空置</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>高区</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>到期日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月23</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月23</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Csqbbh</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片附件</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次缴纳日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于报警期限识别</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于报警期限识别</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请表编号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次缴纳日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同生效日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据付款方式和合同签订日期自动生成，留空代表取消了预警。通过最后一个房租收款单反写。</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hshengxiaoriqi</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>入住合同表主表  表名：ZZZ_RZHT</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hyjrq</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>HID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>租金收款单表  表名：ZZZ_moneyZJSKD</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mxiaciriqi</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>zgbz</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>zgnianxian</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 0)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 0)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>子表编号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表编号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>年限</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>资格开始日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>资格结束日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>zgid</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>zgbegin</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>CID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>zgend</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>承租人表子表-承租资格信息  表名：ZZZ_chengzuren_zige</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>zg_CID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>HID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款方式</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款预警日</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>留空代表取消了预警。通过最后一个车位类型的物业费收款单反写。</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业合同主表  表名：ZZZ_HTwuye</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hzhuangtai</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>车位合同主表  表名：ZZZ_HTchewei</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>草稿,生效,已退租</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cczqx</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hyjrq</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
     <t>草稿、生效、已退租</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>FID</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>H_FID</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>已承租、未承租</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cshenfenzheng</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>MID</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fzuoluo</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>退租记录表  表名：ZZZ_tuizujilu</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mchuangjianren</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>草稿、生效</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>收款凭证号</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>收款金额</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>押金收款单表  表名：ZZZ_moneyYJSKD</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>原押金收款单号</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>原押金凭证号</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>押金退款单表  表名：ZZZ_moneyYJTHD</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>M_MID</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>M_Mpz</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他退款单表  表名：ZZZ_moneyQTTKD</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>收费项目</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Myouxiao1</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效区间结束日期</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Myouxiao2</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效区间开始日期</t>
+    <t>合同生效日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hdaoqiriqi</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mxiaciriqi</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业费收款单表  表名：ZZZ_moneyWYFSKD</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Mxiangmu</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修申请单表  表名：ZZZ_WXQQ</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jgldh</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wsqrq</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wwenti</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wbeizhu</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否保险期内</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否发生费用</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用金额</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理过程描述</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>已申请、处理中、结单</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wzt</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>已入住、空置</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>高区</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>到期日期</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前日期</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月23</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月23</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Csqbbh</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(2000)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(2000)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片附件</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mxiaciriqi</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>下次缴纳日期</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于报警期限识别</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于报警期限识别</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请表编号</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>下次缴纳日期</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同生效日期</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据付款方式和合同签订日期自动生成，留空代表取消了预警。通过最后一个房租收款单反写。</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hshengxiaoriqi</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>入住合同表主表  表名：ZZZ_RZHT</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hyjrq</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>HID</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>租金收款单表  表名：ZZZ_moneyZJSKD</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mxiaciriqi</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(500)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>zgbz</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>zgnianxian</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 0)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 0)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>子表编号</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>主表编号</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>年限</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>资格开始日期</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>资格结束日期</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>zgid</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>zgbegin</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cczqx</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>CID</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>zgend</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>承租人表子表-承租资格信息  表名：ZZZ_chengzuren_zige</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>zg_CID</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>HID</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款方式</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款预警日</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>留空代表取消了预警。通过最后一个车位类型的物业费收款单反写。</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>物业合同主表  表名：ZZZ_HTwuye</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hzhuangtai</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>车位合同主表  表名：ZZZ_HTchewei</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>草稿,生效,已退租</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -2982,8 +2994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3005,7 +3017,7 @@
     </row>
     <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
@@ -3042,7 +3054,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
@@ -3061,7 +3073,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>32</v>
@@ -3293,7 +3305,7 @@
     </row>
     <row r="26" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="43" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B26" s="43"/>
       <c r="C26" s="43"/>
@@ -3327,10 +3339,10 @@
     </row>
     <row r="28" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>25</v>
@@ -3346,10 +3358,10 @@
     </row>
     <row r="29" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>32</v>
@@ -3360,15 +3372,15 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>33</v>
@@ -3378,18 +3390,18 @@
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>34</v>
@@ -3403,10 +3415,10 @@
     </row>
     <row r="32" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>84</v>
@@ -3420,13 +3432,13 @@
     </row>
     <row r="33" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>85</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>76</v>
@@ -3437,10 +3449,10 @@
     </row>
     <row r="34" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>86</v>
@@ -3452,13 +3464,13 @@
     </row>
     <row r="35" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>78</v>
@@ -3469,10 +3481,10 @@
     </row>
     <row r="36" spans="1:7" s="34" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C36" s="31" t="s">
         <v>25</v>
@@ -3486,13 +3498,13 @@
     </row>
     <row r="37" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>77</v>
@@ -3500,15 +3512,15 @@
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="19" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>86</v>
@@ -3519,12 +3531,12 @@
       <c r="E38" s="9"/>
       <c r="F38" s="8"/>
       <c r="G38" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>90</v>
@@ -3537,13 +3549,13 @@
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G39" s="2"/>
     </row>
     <row r="45" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B45" s="43"/>
       <c r="C45" s="43"/>
@@ -3577,13 +3589,13 @@
     </row>
     <row r="47" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>7</v>
@@ -3596,10 +3608,10 @@
     </row>
     <row r="48" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>92</v>
@@ -3610,15 +3622,15 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>59</v>
@@ -3632,16 +3644,16 @@
     </row>
     <row r="50" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B50" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>334</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="7"/>
@@ -3649,16 +3661,16 @@
     </row>
     <row r="51" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="7"/>
@@ -3666,10 +3678,10 @@
     </row>
     <row r="52" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>84</v>
@@ -3683,10 +3695,10 @@
     </row>
     <row r="53" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>83</v>
@@ -3700,13 +3712,13 @@
     </row>
     <row r="54" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>103</v>
@@ -3715,10 +3727,10 @@
     </row>
     <row r="55" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>89</v>
@@ -3729,15 +3741,15 @@
       <c r="E55" s="4"/>
       <c r="F55" s="7"/>
       <c r="G55" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>99</v>
@@ -3747,13 +3759,13 @@
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G56" s="2"/>
     </row>
     <row r="59" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="43" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B59" s="43"/>
       <c r="C59" s="43"/>
@@ -3787,13 +3799,13 @@
     </row>
     <row r="61" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>7</v>
@@ -3806,10 +3818,10 @@
     </row>
     <row r="62" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="21" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>92</v>
@@ -3823,13 +3835,13 @@
     </row>
     <row r="63" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="21" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>9</v>
@@ -3840,13 +3852,13 @@
     </row>
     <row r="64" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="B64" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="B64" s="20" t="s">
-        <v>377</v>
-      </c>
       <c r="C64" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>9</v>
@@ -3857,13 +3869,13 @@
     </row>
     <row r="65" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>9</v>
@@ -3874,13 +3886,13 @@
     </row>
     <row r="66" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>13</v>
@@ -3906,8 +3918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3920,7 +3932,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="43" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -3954,10 +3966,10 @@
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>93</v>
@@ -3973,10 +3985,10 @@
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>92</v>
@@ -3987,15 +3999,15 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>286</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>86</v>
@@ -4009,10 +4021,10 @@
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>91</v>
@@ -4026,16 +4038,16 @@
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="7"/>
@@ -4043,13 +4055,13 @@
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>183</v>
+        <v>391</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>9</v>
@@ -4060,10 +4072,10 @@
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>83</v>
@@ -4074,21 +4086,21 @@
       <c r="E9" s="4"/>
       <c r="F9" s="7"/>
       <c r="G9" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="C10" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>281</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="7"/>
@@ -4096,10 +4108,10 @@
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>98</v>
@@ -4108,15 +4120,15 @@
         <v>138</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>81</v>
@@ -4130,10 +4142,10 @@
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>97</v>
@@ -4147,10 +4159,10 @@
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>96</v>
@@ -4166,13 +4178,13 @@
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>80</v>
@@ -4186,7 +4198,7 @@
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="43" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B19" s="43"/>
       <c r="C19" s="43"/>
@@ -4220,10 +4232,10 @@
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>84</v>
@@ -4239,13 +4251,13 @@
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>10</v>
@@ -4256,10 +4268,10 @@
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>86</v>
@@ -4273,13 +4285,13 @@
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>79</v>
@@ -4290,10 +4302,10 @@
     </row>
     <row r="25" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>89</v>
@@ -4304,15 +4316,15 @@
       <c r="E25" s="4"/>
       <c r="F25" s="7"/>
       <c r="G25" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>82</v>
@@ -4329,7 +4341,7 @@
     </row>
     <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="43" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B32" s="43"/>
       <c r="C32" s="43"/>
@@ -4363,13 +4375,13 @@
     </row>
     <row r="34" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>7</v>
@@ -4382,7 +4394,7 @@
     </row>
     <row r="35" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>114</v>
@@ -4399,10 +4411,10 @@
     </row>
     <row r="36" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>123</v>
@@ -4416,16 +4428,16 @@
     </row>
     <row r="37" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -4433,32 +4445,32 @@
     </row>
     <row r="38" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>13</v>
@@ -4467,7 +4479,7 @@
     </row>
     <row r="40" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B40" s="21" t="s">
         <v>121</v>
@@ -4479,15 +4491,15 @@
         <v>100</v>
       </c>
       <c r="G40" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>125</v>
@@ -4496,7 +4508,7 @@
         <v>80</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4504,10 +4516,10 @@
         <v>75</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>100</v>
@@ -4515,7 +4527,7 @@
     </row>
     <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="43" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B47" s="43"/>
       <c r="C47" s="43"/>
@@ -4682,7 +4694,7 @@
     </row>
     <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="43" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B61" s="43"/>
       <c r="C61" s="43"/>
@@ -4716,7 +4728,7 @@
     </row>
     <row r="63" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>113</v>
@@ -4735,16 +4747,16 @@
     </row>
     <row r="64" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>137</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="4"/>
@@ -4752,10 +4764,10 @@
     </row>
     <row r="65" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>125</v>
@@ -4786,7 +4798,7 @@
     </row>
     <row r="67" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B67" s="20" t="s">
         <v>115</v>
@@ -4803,7 +4815,7 @@
     </row>
     <row r="68" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B68" s="21" t="s">
         <v>116</v>
@@ -4883,7 +4895,7 @@
     </row>
     <row r="75" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A75" s="43" t="s">
-        <v>139</v>
+        <v>393</v>
       </c>
       <c r="B75" s="43"/>
       <c r="C75" s="43"/>
@@ -4917,7 +4929,7 @@
     </row>
     <row r="77" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B77" s="10" t="s">
         <v>113</v>
@@ -4936,10 +4948,10 @@
     </row>
     <row r="78" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>311</v>
+        <v>394</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>137</v>
@@ -4950,18 +4962,18 @@
       <c r="E78" s="2"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>80</v>
@@ -4972,10 +4984,10 @@
     </row>
     <row r="80" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>81</v>
@@ -5006,7 +5018,7 @@
     </row>
     <row r="82" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B82" s="20" t="s">
         <v>115</v>
@@ -5023,7 +5035,7 @@
     </row>
     <row r="83" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A83" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B83" s="21" t="s">
         <v>116</v>
@@ -5040,21 +5052,21 @@
     </row>
     <row r="84" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>341</v>
+        <v>392</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5114,7 +5126,7 @@
         <v>127</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>100</v>
@@ -5122,7 +5134,7 @@
     </row>
     <row r="92" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A92" s="43" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B92" s="43"/>
       <c r="C92" s="43"/>
@@ -5175,7 +5187,7 @@
     </row>
     <row r="95" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>133</v>
@@ -5184,7 +5196,7 @@
         <v>137</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="4"/>
@@ -5192,7 +5204,7 @@
     </row>
     <row r="96" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>135</v>
@@ -5201,7 +5213,7 @@
         <v>125</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="4"/>
@@ -5249,7 +5261,7 @@
         <v>116</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>124</v>
@@ -5355,7 +5367,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="43" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -5389,10 +5401,10 @@
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>84</v>
@@ -5408,13 +5420,13 @@
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>80</v>
@@ -5425,13 +5437,13 @@
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>124</v>
@@ -5442,16 +5454,16 @@
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -5462,10 +5474,10 @@
         <v>111</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>100</v>
@@ -5473,32 +5485,32 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>118</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>81</v>
@@ -5509,7 +5521,7 @@
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B14" s="43"/>
       <c r="C14" s="43"/>
@@ -5543,13 +5555,13 @@
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>103</v>
@@ -5562,13 +5574,13 @@
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>80</v>
@@ -5576,15 +5588,15 @@
       <c r="E17" s="2"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>96</v>
@@ -5598,10 +5610,10 @@
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>99</v>
@@ -5615,29 +5627,29 @@
     </row>
     <row r="20" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>96</v>
@@ -5648,18 +5660,18 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>100</v>
@@ -5670,13 +5682,13 @@
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>102</v>
@@ -5687,10 +5699,10 @@
     </row>
     <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>96</v>
@@ -5699,7 +5711,7 @@
         <v>100</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5707,7 +5719,7 @@
         <v>75</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>81</v>
@@ -5916,7 +5928,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="43" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -5953,7 +5965,7 @@
         <v>95</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>59</v>
@@ -5969,10 +5981,10 @@
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>92</v>
@@ -5983,15 +5995,15 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>59</v>
@@ -6005,10 +6017,10 @@
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>91</v>
@@ -6022,10 +6034,10 @@
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>24</v>
@@ -6039,10 +6051,10 @@
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>24</v>
@@ -6056,10 +6068,10 @@
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>59</v>
@@ -6070,18 +6082,18 @@
       <c r="E9" s="4"/>
       <c r="F9" s="7"/>
       <c r="G9" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B10" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>280</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
@@ -6092,10 +6104,10 @@
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>24</v>
@@ -6104,15 +6116,15 @@
         <v>13</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>24</v>
@@ -6126,10 +6138,10 @@
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>60</v>
@@ -6146,7 +6158,7 @@
         <v>112</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>59</v>
@@ -6165,7 +6177,7 @@
         <v>75</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>24</v>
@@ -6182,7 +6194,7 @@
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="43" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B19" s="43"/>
       <c r="C19" s="43"/>
@@ -6219,7 +6231,7 @@
         <v>95</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>59</v>
@@ -6235,10 +6247,10 @@
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>59</v>
@@ -6252,10 +6264,10 @@
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>91</v>
@@ -6269,10 +6281,10 @@
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>24</v>
@@ -6286,10 +6298,10 @@
     </row>
     <row r="25" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>24</v>
@@ -6303,10 +6315,10 @@
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>59</v>
@@ -6317,18 +6329,18 @@
       <c r="E26" s="4"/>
       <c r="F26" s="7"/>
       <c r="G26" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B27" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>280</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>9</v>
@@ -6339,10 +6351,10 @@
     </row>
     <row r="28" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>24</v>
@@ -6356,10 +6368,10 @@
     </row>
     <row r="29" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>60</v>
@@ -6376,7 +6388,7 @@
         <v>112</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>59</v>
@@ -6395,7 +6407,7 @@
         <v>75</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>24</v>
@@ -6437,18 +6449,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B2" s="41">
         <v>42480</v>
@@ -6459,10 +6471,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C3" s="41">
         <v>42401</v>
@@ -6470,18 +6482,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B6" s="41">
         <v>42510</v>
@@ -6492,10 +6504,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C7" s="41">
         <v>42430</v>
@@ -6503,7 +6515,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B8" s="41">
         <v>42480</v>
@@ -6514,10 +6526,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C9" s="41">
         <v>42430</v>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息表" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="402">
   <si>
     <t>界面字段名</t>
   </si>
@@ -1674,87 +1674,115 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
+    <t>zgend</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>承租人表子表-承租资格信息  表名：ZZZ_chengzuren_zige</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>zg_CID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>HID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款方式</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款预警日</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>留空代表取消了预警。通过最后一个车位类型的物业费收款单反写。</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业合同主表  表名：ZZZ_HTwuye</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hzhuangtai</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>车位合同主表  表名：ZZZ_HTchewei</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>草稿,生效,已退租</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cczqx</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hyjrq</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>草稿、生效、已退租</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同生效日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hdaoqiriqi</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mxiaciriqi</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业费收款单表  表名：ZZZ_moneyWYFSKD</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mxiangmu</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
     <t>CID</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>zgend</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>承租人表子表-承租资格信息  表名：ZZZ_chengzuren_zige</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>zg_CID</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>HID</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款方式</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款预警日</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>留空代表取消了预警。通过最后一个车位类型的物业费收款单反写。</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>物业合同主表  表名：ZZZ_HTwuye</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hzhuangtai</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>车位合同主表  表名：ZZZ_HTchewei</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>草稿,生效,已退租</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cczqx</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hyjrq</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>草稿、生效、已退租</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同生效日期</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hdaoqiriqi</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mxiaciriqi</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>物业费收款单表  表名：ZZZ_moneyWYFSKD</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mxiangmu</t>
+    <t>H_CID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员类型</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cleixing</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(100)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -2992,10 +3020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3592,7 +3620,7 @@
         <v>177</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>175</v>
@@ -3701,7 +3729,7 @@
         <v>172</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>83</v>
+        <v>398</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>100</v>
@@ -3715,7 +3743,7 @@
         <v>267</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>357</v>
@@ -3755,7 +3783,7 @@
         <v>99</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>103</v>
+        <v>400</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4" t="s">
@@ -3763,119 +3791,119 @@
       </c>
       <c r="G56" s="2"/>
     </row>
-    <row r="59" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="43" t="s">
-        <v>376</v>
-      </c>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-    </row>
-    <row r="60" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+    <row r="57" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="60" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+    </row>
+    <row r="61" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="13" t="s">
+    <row r="62" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B62" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C62" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D62" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F61" s="4"/>
-      <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="21" t="s">
-        <v>367</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="4"/>
       <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
+      <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="D63" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E63" s="4"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="2"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
     </row>
     <row r="64" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="4"/>
+      <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>9</v>
@@ -3886,27 +3914,44 @@
     </row>
     <row r="66" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="2"/>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="A60:G60"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3918,8 +3963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3999,7 +4044,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -4007,7 +4052,7 @@
         <v>177</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>248</v>
+        <v>395</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>86</v>
@@ -4038,7 +4083,7 @@
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>351</v>
@@ -4058,7 +4103,7 @@
         <v>270</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>346</v>
@@ -4111,7 +4156,7 @@
         <v>272</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>98</v>
@@ -4895,7 +4940,7 @@
     </row>
     <row r="75" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A75" s="43" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B75" s="43"/>
       <c r="C75" s="43"/>
@@ -4951,7 +4996,7 @@
         <v>304</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>137</v>
@@ -5055,7 +5100,7 @@
         <v>341</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>339</v>
@@ -5928,7 +5973,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="43" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -5965,7 +6010,7 @@
         <v>95</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>59</v>
@@ -5984,7 +6029,7 @@
         <v>188</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>92</v>
@@ -5995,7 +6040,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -6068,7 +6113,7 @@
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>183</v>
@@ -6087,7 +6132,7 @@
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>278</v>
@@ -6104,7 +6149,7 @@
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>353</v>
@@ -6116,7 +6161,7 @@
         <v>13</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -6194,7 +6239,7 @@
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="43" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B19" s="43"/>
       <c r="C19" s="43"/>
@@ -6231,7 +6276,7 @@
         <v>95</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>59</v>
@@ -6315,7 +6360,7 @@
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>183</v>
@@ -6334,7 +6379,7 @@
     </row>
     <row r="27" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>278</v>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息表" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="484">
   <si>
     <t>界面字段名</t>
   </si>
@@ -937,14 +937,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>Mpz</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mje</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>Mbeizhu</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -1159,10 +1151,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>nvarchar(500)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>Wchuangjianren</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -1366,10 +1354,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>押金收款单表  表名：ZZZ_moneyYJSKD</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>原押金收款单号</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -1634,147 +1618,259 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
+    <t>datetime</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>子表编号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表编号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>年限</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>资格开始日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>资格结束日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>zgid</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>zgbegin</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>zgend</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>承租人表子表-承租资格信息  表名：ZZZ_chengzuren_zige</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>zg_CID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>HID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款方式</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款预警日</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>留空代表取消了预警。通过最后一个车位类型的物业费收款单反写。</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业合同主表  表名：ZZZ_HTwuye</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hzhuangtai</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>车位合同主表  表名：ZZZ_HTchewei</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>草稿,生效,已退租</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cczqx</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hyjrq</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>草稿、生效、已退租</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同生效日期</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hdaoqiriqi</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mxiaciriqi</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业费收款单表  表名：ZZZ_moneyWYFSKD</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mxiangmu</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>CID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>H_CID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员类型</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cleixing</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(100)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度其他费用</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度租金</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度物业费</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hfkfs</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度付</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
     <t>decimal(18, 0)</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>datetime</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>子表编号</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>主表编号</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>年限</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>资格开始日期</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>资格结束日期</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>zgid</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>zgbegin</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>zgend</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>承租人表子表-承租资格信息  表名：ZZZ_chengzuren_zige</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>zg_CID</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>HID</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款方式</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款预警日</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>留空代表取消了预警。通过最后一个车位类型的物业费收款单反写。</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>物业合同主表  表名：ZZZ_HTwuye</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hzhuangtai</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>车位合同主表  表名：ZZZ_HTchewei</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>草稿,生效,已退租</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cczqx</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hyjrq</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>草稿、生效、已退租</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同生效日期</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hdaoqiriqi</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mxiaciriqi</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>物业费收款单表  表名：ZZZ_moneyWYFSKD</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mxiangmu</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>CID</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>H_CID</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员类型</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cleixing</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(100)</t>
+    <t>Hjddtf</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>租金-本次收款</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>电梯费-项目金额</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>电梯费-已缴纳</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度电梯费</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fjdzj</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fjdwyf</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fjddtf</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度其他费用</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度物业费</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fjdqtfy</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hjdzj</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计本次收款</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>MZ_wy_yjn</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>MZ_dt_pzh</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>MZ_q_pzh</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mje(已存在)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>MZ_q_bcsk</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
@@ -1782,7 +1878,239 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>MHjdwyf</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>MZ_q_yjn</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>租赁期限</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度租金</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度电梯费</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>租金-项目金额</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>租金-已缴纳</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>MZ_zj_yjn</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>租金-凭证号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>MZ_zj_pzh</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>租金-欠款</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>MZ_zj_qiankuan</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>MZ_wy_xmje</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业费-项目金额</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业费-已缴纳</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>MZ_wy_pzh</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业费-凭证号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业费-本次收款</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业费-欠款</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>MZ_wy_qiankuan</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>MZ_dt_xmje</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>电梯费-凭证号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>MZ_dt_bcsk</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>电梯费-本次收款</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>电梯费-欠款</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>MZ_dt_qiankuan</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>MZ_q_xmje</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他费-项目金额</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他费-已缴纳</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他费-凭证号</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他费-本次收款</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>MZ_q_qiankuan</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他费-欠款</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>MZ_all_xmje</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>房租总金额</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>MZ_all_yjn</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计已缴纳</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>MZ_all_qiankuan</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计欠款</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mpz</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hzlqx</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hjdwyf</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hjdqtfy</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度租金</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度电梯费</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>MHzlqx</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>MHjdzj</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>MHjddtf</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>MHjdqtfy</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_HID</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>MZ_zj_xmje</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>MZ_zj_bcsk</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>MZ_wy_bcsk</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>MZ_dt_yjn</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -2023,7 +2351,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2165,6 +2493,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2526,7 +2860,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2646,6 +2980,28 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="70">
@@ -3020,10 +3376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3045,7 +3401,7 @@
     </row>
     <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="43" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
@@ -3082,7 +3438,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
@@ -3101,7 +3457,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>32</v>
@@ -3333,7 +3689,7 @@
     </row>
     <row r="26" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="43" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B26" s="43"/>
       <c r="C26" s="43"/>
@@ -3370,7 +3726,7 @@
         <v>164</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>25</v>
@@ -3400,12 +3756,12 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>156</v>
@@ -3418,7 +3774,7 @@
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>163</v>
@@ -3429,7 +3785,7 @@
         <v>166</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>34</v>
@@ -3443,7 +3799,7 @@
     </row>
     <row r="32" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>157</v>
@@ -3460,13 +3816,13 @@
     </row>
     <row r="33" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>85</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>76</v>
@@ -3477,7 +3833,7 @@
     </row>
     <row r="34" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>158</v>
@@ -3492,13 +3848,13 @@
     </row>
     <row r="35" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>159</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>78</v>
@@ -3509,7 +3865,7 @@
     </row>
     <row r="36" spans="1:7" s="34" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="30" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B36" s="30" t="s">
         <v>160</v>
@@ -3526,13 +3882,13 @@
     </row>
     <row r="37" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>161</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>77</v>
@@ -3540,7 +3896,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="19" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -3548,7 +3904,7 @@
         <v>167</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>86</v>
@@ -3581,107 +3937,155 @@
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="45" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="43" t="s">
-        <v>246</v>
-      </c>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-    </row>
-    <row r="46" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D40" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="44" t="s">
+        <v>399</v>
+      </c>
+      <c r="B41" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="47"/>
+    </row>
+    <row r="42" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="44" t="s">
+        <v>414</v>
+      </c>
+      <c r="B42" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="47"/>
+    </row>
+    <row r="43" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="44" t="s">
+        <v>409</v>
+      </c>
+      <c r="B43" s="44" t="s">
+        <v>412</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="47"/>
+    </row>
+    <row r="44" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="44" t="s">
+        <v>413</v>
+      </c>
+      <c r="B44" s="44" t="s">
+        <v>415</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="47"/>
+    </row>
+    <row r="46" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+    </row>
+    <row r="47" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="13" t="s">
+    <row r="48" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="C47" s="4" t="s">
+      <c r="B48" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="4" t="s">
-        <v>287</v>
-      </c>
+      <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B49" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
-        <v>344</v>
+        <v>179</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>332</v>
+        <v>59</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>334</v>
+        <v>102</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="7"/>
@@ -3689,33 +4093,33 @@
     </row>
     <row r="51" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
-        <v>264</v>
+        <v>340</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>91</v>
+        <v>328</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="2"/>
+      <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>171</v>
+        <v>285</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>100</v>
+        <v>329</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="7"/>
@@ -3723,13 +4127,13 @@
     </row>
     <row r="53" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>398</v>
+        <v>84</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>100</v>
@@ -3738,189 +4142,189 @@
       <c r="F53" s="7"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>386</v>
+        <v>263</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>172</v>
       </c>
       <c r="C54" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G55" s="22"/>
+    </row>
+    <row r="56" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E56" s="4"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="61" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+    </row>
+    <row r="62" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G54" s="22"/>
-    </row>
-    <row r="55" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="2"/>
-    </row>
-    <row r="60" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="43" t="s">
-        <v>375</v>
-      </c>
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
-    </row>
-    <row r="61" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="D62" s="4" t="s">
+      <c r="D63" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="4"/>
-      <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="21" t="s">
-        <v>367</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>376</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
+      <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="D64" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E64" s="4"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="2"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
     </row>
     <row r="65" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="4"/>
+      <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>9</v>
@@ -3931,27 +4335,44 @@
     </row>
     <row r="67" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B67" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>359</v>
-      </c>
       <c r="D67" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="7"/>
-      <c r="G67" s="2"/>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A61:G61"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3961,15 +4382,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
     <col min="3" max="3" width="13.375" customWidth="1"/>
     <col min="6" max="6" width="5.75" customWidth="1"/>
     <col min="7" max="7" width="56" customWidth="1"/>
@@ -3977,7 +4399,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="43" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -4014,7 +4436,7 @@
         <v>187</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>93</v>
@@ -4044,7 +4466,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -4052,7 +4474,7 @@
         <v>177</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>86</v>
@@ -4066,10 +4488,10 @@
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>91</v>
@@ -4083,16 +4505,16 @@
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="7"/>
@@ -4100,13 +4522,13 @@
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>9</v>
@@ -4115,1278 +4537,1788 @@
       <c r="F8" s="7"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:7" s="46" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>401</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="50" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="46" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="48"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="50"/>
+    </row>
+    <row r="11" spans="1:7" s="46" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>403</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="E11" s="50"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="50"/>
+    </row>
+    <row r="12" spans="1:7" s="46" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="48" t="s">
+        <v>432</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>404</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="50"/>
+    </row>
+    <row r="13" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="47"/>
+    </row>
+    <row r="14" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="44" t="s">
+        <v>414</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>471</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="47"/>
+    </row>
+    <row r="15" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="44" t="s">
+        <v>474</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>405</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="47"/>
+    </row>
+    <row r="16" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="44" t="s">
+        <v>413</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>472</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="47"/>
+    </row>
+    <row r="17" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" s="5" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="4" t="s">
+      <c r="B19" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" s="5" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="B21" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="E21" s="4"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G16" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="43" t="s">
-        <v>291</v>
-      </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-    </row>
-    <row r="20" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G23" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+    </row>
+    <row r="27" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="B30" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
+      <c r="E30" s="4"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="B31" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
+      <c r="E31" s="4"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="B32" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="4" t="s">
+      <c r="E32" s="4"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+    <row r="33" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B33" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G27" s="3"/>
-    </row>
-    <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="43" t="s">
-        <v>355</v>
-      </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-    </row>
-    <row r="33" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G34" s="3"/>
+    </row>
+    <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A39" s="43" t="s">
+        <v>351</v>
+      </c>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+    </row>
+    <row r="40" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
+    <row r="41" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B41" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G47" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B48" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D34" s="4" t="s">
+      <c r="C48" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="46" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="48" t="s">
+        <v>432</v>
+      </c>
+      <c r="B51" s="44" t="s">
+        <v>475</v>
+      </c>
+      <c r="C51" s="50" t="s">
+        <v>404</v>
+      </c>
+      <c r="D51" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="50"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="50"/>
+    </row>
+    <row r="52" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="44" t="s">
+        <v>433</v>
+      </c>
+      <c r="B52" s="44" t="s">
+        <v>476</v>
+      </c>
+      <c r="C52" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="D52" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="47"/>
+    </row>
+    <row r="53" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="B53" s="44" t="s">
+        <v>429</v>
+      </c>
+      <c r="C53" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="D53" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="47"/>
+    </row>
+    <row r="54" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="44" t="s">
+        <v>434</v>
+      </c>
+      <c r="B54" s="44" t="s">
+        <v>477</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="D54" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="47"/>
+    </row>
+    <row r="55" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="44" t="s">
+        <v>397</v>
+      </c>
+      <c r="B55" s="44" t="s">
+        <v>478</v>
+      </c>
+      <c r="C55" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="D55" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="47"/>
+    </row>
+    <row r="56" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="44"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+      <c r="G56" s="47"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+    </row>
+    <row r="58" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="B58" s="44" t="s">
+        <v>480</v>
+      </c>
+      <c r="C58" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+    </row>
+    <row r="59" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="44" t="s">
+        <v>436</v>
+      </c>
+      <c r="B59" s="44" t="s">
+        <v>437</v>
+      </c>
+      <c r="C59" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+    </row>
+    <row r="60" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="B60" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+    </row>
+    <row r="61" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="44" t="s">
+        <v>406</v>
+      </c>
+      <c r="B61" s="44" t="s">
+        <v>481</v>
+      </c>
+      <c r="C61" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+    </row>
+    <row r="62" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="44" t="s">
+        <v>440</v>
+      </c>
+      <c r="B62" s="44" t="s">
+        <v>441</v>
+      </c>
+      <c r="C62" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+    </row>
+    <row r="63" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="44" t="s">
+        <v>443</v>
+      </c>
+      <c r="B63" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="C63" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+    </row>
+    <row r="64" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="44" t="s">
+        <v>444</v>
+      </c>
+      <c r="B64" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="C64" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+    </row>
+    <row r="65" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="44" t="s">
+        <v>446</v>
+      </c>
+      <c r="B65" s="44" t="s">
+        <v>445</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
+    </row>
+    <row r="66" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="B66" s="44" t="s">
+        <v>482</v>
+      </c>
+      <c r="C66" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
+    </row>
+    <row r="67" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="B67" s="44" t="s">
+        <v>449</v>
+      </c>
+      <c r="C67" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+    </row>
+    <row r="68" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="44" t="s">
+        <v>407</v>
+      </c>
+      <c r="B68" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="C68" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+    </row>
+    <row r="69" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="44" t="s">
+        <v>408</v>
+      </c>
+      <c r="B69" s="44" t="s">
+        <v>483</v>
+      </c>
+      <c r="C69" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+    </row>
+    <row r="70" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="44" t="s">
+        <v>451</v>
+      </c>
+      <c r="B70" s="44" t="s">
+        <v>420</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+    </row>
+    <row r="71" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="44" t="s">
+        <v>453</v>
+      </c>
+      <c r="B71" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="C71" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+    </row>
+    <row r="72" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="44" t="s">
+        <v>454</v>
+      </c>
+      <c r="B72" s="44" t="s">
+        <v>455</v>
+      </c>
+      <c r="C72" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="D72" s="44"/>
+      <c r="E72" s="44"/>
+    </row>
+    <row r="73" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="44" t="s">
+        <v>457</v>
+      </c>
+      <c r="B73" s="44" t="s">
+        <v>456</v>
+      </c>
+      <c r="C73" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="D73" s="44"/>
+      <c r="E73" s="44"/>
+    </row>
+    <row r="74" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="44" t="s">
+        <v>458</v>
+      </c>
+      <c r="B74" s="44" t="s">
+        <v>430</v>
+      </c>
+      <c r="C74" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
+    </row>
+    <row r="75" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="44" t="s">
+        <v>459</v>
+      </c>
+      <c r="B75" s="44" t="s">
+        <v>421</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D75" s="44"/>
+      <c r="E75" s="44"/>
+    </row>
+    <row r="76" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="44" t="s">
+        <v>460</v>
+      </c>
+      <c r="B76" s="44" t="s">
+        <v>423</v>
+      </c>
+      <c r="C76" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="D76" s="44"/>
+      <c r="E76" s="44"/>
+    </row>
+    <row r="77" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="B77" s="44" t="s">
+        <v>461</v>
+      </c>
+      <c r="C77" s="44" t="s">
+        <v>431</v>
+      </c>
+      <c r="D77" s="44"/>
+      <c r="E77" s="44"/>
+    </row>
+    <row r="78" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="44"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="44"/>
+    </row>
+    <row r="79" spans="1:7" s="46" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="48" t="s">
+        <v>464</v>
+      </c>
+      <c r="B79" s="44" t="s">
+        <v>463</v>
+      </c>
+      <c r="C79" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="D79" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="E79" s="44"/>
+      <c r="F79" s="51"/>
+      <c r="G79" s="50"/>
+    </row>
+    <row r="80" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="44" t="s">
+        <v>466</v>
+      </c>
+      <c r="B80" s="44" t="s">
+        <v>465</v>
+      </c>
+      <c r="C80" s="44" t="s">
+        <v>425</v>
+      </c>
+      <c r="D80" s="44" t="s">
+        <v>426</v>
+      </c>
+      <c r="E80" s="44"/>
+      <c r="F80" s="51"/>
+      <c r="G80" s="50"/>
+    </row>
+    <row r="81" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="44" t="s">
+        <v>418</v>
+      </c>
+      <c r="B81" s="44" t="s">
+        <v>422</v>
+      </c>
+      <c r="C81" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="D81" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="E81" s="44"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="50"/>
+    </row>
+    <row r="82" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="44" t="s">
+        <v>468</v>
+      </c>
+      <c r="B82" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="C82" s="44" t="s">
+        <v>427</v>
+      </c>
+      <c r="D82" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="E82" s="44"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="50"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A83" s="18"/>
+    </row>
+    <row r="84" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="B35" s="20" t="s">
+      <c r="F85" s="4"/>
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C86" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+    </row>
+    <row r="87" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D87" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="B40" s="21" t="s">
+      <c r="E87" s="4"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="4"/>
+    </row>
+    <row r="88" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G89" s="3"/>
+    </row>
+    <row r="90" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B90" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C90" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D90" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G40" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
+      <c r="G91" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A97" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="B97" s="43"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="43"/>
+      <c r="F97" s="43"/>
+      <c r="G97" s="43"/>
+    </row>
+    <row r="98" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="B41" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A47" s="43" t="s">
-        <v>297</v>
-      </c>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-    </row>
-    <row r="48" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="2" t="s">
+      <c r="B99" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G54" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A61" s="43" t="s">
-        <v>300</v>
-      </c>
-      <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="43"/>
-    </row>
-    <row r="62" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="4"/>
-      <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-    </row>
-    <row r="67" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="4"/>
-    </row>
-    <row r="68" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="B68" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="2"/>
-    </row>
-    <row r="69" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="B69" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B70" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G70" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B71" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A75" s="43" t="s">
-        <v>392</v>
-      </c>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-    </row>
-    <row r="76" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" s="4"/>
-      <c r="G77" s="2"/>
-    </row>
-    <row r="78" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="2"/>
-    </row>
-    <row r="80" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="2"/>
-    </row>
-    <row r="81" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B81" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-    </row>
-    <row r="82" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="4"/>
-    </row>
-    <row r="83" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="B83" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="2"/>
-    </row>
-    <row r="84" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="B84" s="21" t="s">
-        <v>391</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="B85" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G85" s="3"/>
-    </row>
-    <row r="86" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B86" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G86" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B87" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B88" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A92" s="43" t="s">
-        <v>303</v>
-      </c>
-      <c r="B92" s="43"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="43"/>
-      <c r="E92" s="43"/>
-      <c r="F92" s="43"/>
-      <c r="G92" s="43"/>
-    </row>
-    <row r="93" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="4"/>
-      <c r="G94" s="2"/>
-    </row>
-    <row r="95" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="2"/>
-    </row>
-    <row r="96" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="2"/>
-    </row>
-    <row r="97" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B97" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-    </row>
-    <row r="98" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="B98" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E98" s="4"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="4"/>
-    </row>
-    <row r="99" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="B99" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="21" t="s">
+    <row r="100" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+    </row>
+    <row r="103" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E103" s="4"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="4"/>
+    </row>
+    <row r="104" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B104" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B100" s="21" t="s">
+      <c r="B105" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="C100" s="17" t="s">
+      <c r="C105" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D105" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G100" s="3"/>
-    </row>
-    <row r="101" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="21" t="s">
+      <c r="G105" s="3"/>
+    </row>
+    <row r="106" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B101" s="21" t="s">
+      <c r="B106" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="C101" s="17" t="s">
+      <c r="C106" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D106" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G106" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="21" t="s">
+    <row r="107" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B102" s="20" t="s">
+      <c r="B107" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C102" s="17" t="s">
+      <c r="C107" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D107" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G102" s="4" t="s">
+      <c r="G107" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="21" t="s">
+    <row r="108" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B103" s="21" t="s">
+      <c r="B108" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="C103" s="17" t="s">
+      <c r="C108" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D108" s="4" t="s">
         <v>100</v>
       </c>
     </row>
+    <row r="111" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A111" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="B111" s="43"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="43"/>
+      <c r="E111" s="43"/>
+      <c r="F111" s="43"/>
+      <c r="G111" s="43"/>
+    </row>
+    <row r="112" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" s="4"/>
+      <c r="G113" s="2"/>
+    </row>
+    <row r="114" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="2"/>
+    </row>
+    <row r="117" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+    </row>
+    <row r="118" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="B118" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E118" s="4"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="4"/>
+    </row>
+    <row r="119" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="B119" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="2"/>
+    </row>
+    <row r="120" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="B120" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B121" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G121" s="3"/>
+    </row>
+    <row r="122" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B122" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G122" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B123" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C124" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A128" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="B128" s="43"/>
+      <c r="C128" s="43"/>
+      <c r="D128" s="43"/>
+      <c r="E128" s="43"/>
+      <c r="F128" s="43"/>
+      <c r="G128" s="43"/>
+    </row>
+    <row r="129" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" s="4"/>
+      <c r="G130" s="2"/>
+    </row>
+    <row r="131" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E131" s="2"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="2"/>
+    </row>
+    <row r="132" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E132" s="2"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="2"/>
+    </row>
+    <row r="133" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B133" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+    </row>
+    <row r="134" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B134" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E134" s="4"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="4"/>
+    </row>
+    <row r="135" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B135" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="2"/>
+    </row>
+    <row r="136" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B136" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C136" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G136" s="3"/>
+    </row>
+    <row r="137" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B137" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C137" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G137" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B138" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C138" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B139" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C139" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A92:G92"/>
+  <mergeCells count="6">
+    <mergeCell ref="A128:G128"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A61:G61"/>
-    <mergeCell ref="A75:G75"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A97:G97"/>
+    <mergeCell ref="A111:G111"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5412,7 +6344,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="43" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -5446,10 +6378,10 @@
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>84</v>
@@ -5465,13 +6397,13 @@
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>80</v>
@@ -5482,10 +6414,10 @@
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>145</v>
@@ -5499,10 +6431,10 @@
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>150</v>
@@ -5519,7 +6451,7 @@
         <v>111</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>147</v>
@@ -5530,7 +6462,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -5538,16 +6470,16 @@
         <v>189</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>118</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5555,7 +6487,7 @@
         <v>168</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>81</v>
@@ -5566,7 +6498,7 @@
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="43" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B14" s="43"/>
       <c r="C14" s="43"/>
@@ -5600,10 +6532,10 @@
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>148</v>
@@ -5619,10 +6551,10 @@
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>149</v>
@@ -5633,15 +6565,15 @@
       <c r="E17" s="2"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>96</v>
@@ -5655,10 +6587,10 @@
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>99</v>
@@ -5672,10 +6604,10 @@
     </row>
     <row r="20" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>96</v>
@@ -5686,15 +6618,15 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>96</v>
@@ -5710,10 +6642,10 @@
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>152</v>
@@ -5727,10 +6659,10 @@
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>144</v>
@@ -5747,7 +6679,7 @@
         <v>167</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>96</v>
@@ -5756,7 +6688,7 @@
         <v>100</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5764,7 +6696,7 @@
         <v>75</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>81</v>
@@ -5973,7 +6905,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="43" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -6010,7 +6942,7 @@
         <v>95</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>59</v>
@@ -6029,7 +6961,7 @@
         <v>188</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>92</v>
@@ -6040,7 +6972,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -6048,7 +6980,7 @@
         <v>177</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>59</v>
@@ -6065,7 +6997,7 @@
         <v>164</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>91</v>
@@ -6079,10 +7011,10 @@
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>24</v>
@@ -6096,7 +7028,7 @@
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>182</v>
@@ -6113,7 +7045,7 @@
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>183</v>
@@ -6127,18 +7059,18 @@
       <c r="E9" s="4"/>
       <c r="F9" s="7"/>
       <c r="G9" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
@@ -6149,10 +7081,10 @@
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>24</v>
@@ -6161,12 +7093,12 @@
         <v>13</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>184</v>
@@ -6183,7 +7115,7 @@
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>185</v>
@@ -6203,7 +7135,7 @@
         <v>112</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>59</v>
@@ -6239,7 +7171,7 @@
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="43" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B19" s="43"/>
       <c r="C19" s="43"/>
@@ -6276,7 +7208,7 @@
         <v>95</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>59</v>
@@ -6295,7 +7227,7 @@
         <v>177</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>59</v>
@@ -6312,7 +7244,7 @@
         <v>164</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>91</v>
@@ -6326,10 +7258,10 @@
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>24</v>
@@ -6343,7 +7275,7 @@
     </row>
     <row r="25" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>182</v>
@@ -6360,7 +7292,7 @@
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>183</v>
@@ -6374,18 +7306,18 @@
       <c r="E26" s="4"/>
       <c r="F26" s="7"/>
       <c r="G26" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>9</v>
@@ -6396,7 +7328,7 @@
     </row>
     <row r="28" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>184</v>
@@ -6413,7 +7345,7 @@
     </row>
     <row r="29" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>185</v>
@@ -6433,7 +7365,7 @@
         <v>112</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>59</v>
@@ -6494,18 +7426,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B2" s="41">
         <v>42480</v>
@@ -6516,10 +7448,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C3" s="41">
         <v>42401</v>
@@ -6527,18 +7459,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B6" s="41">
         <v>42510</v>
@@ -6549,10 +7481,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C7" s="41">
         <v>42430</v>
@@ -6560,7 +7492,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B8" s="41">
         <v>42480</v>
@@ -6571,10 +7503,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C9" s="41">
         <v>42430</v>
